--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="110">
   <si>
     <t>/30</t>
   </si>
@@ -332,6 +332,21 @@
   </si>
   <si>
     <t>10.0.0.8</t>
+  </si>
+  <si>
+    <t>Alhálózati cím</t>
+  </si>
+  <si>
+    <t>Első kiosztható IP</t>
+  </si>
+  <si>
+    <t>Második kiosztható IP</t>
+  </si>
+  <si>
+    <t>Szórási cím</t>
+  </si>
+  <si>
+    <t>Alhálózati maszk</t>
   </si>
 </sst>
 </file>
@@ -420,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -538,11 +553,21 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -619,6 +644,25 @@
     <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -626,7 +670,13 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -851,7 +901,9 @@
     <col customWidth="1" min="2" max="2" width="4.0"/>
     <col customWidth="1" min="3" max="8" width="8.71"/>
     <col customWidth="1" min="9" max="9" width="26.86"/>
-    <col customWidth="1" min="10" max="18" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="8.71"/>
+    <col customWidth="1" min="11" max="14" width="9.57"/>
+    <col customWidth="1" min="15" max="18" width="8.71"/>
     <col customWidth="1" min="19" max="19" width="12.14"/>
     <col customWidth="1" min="20" max="26" width="8.71"/>
   </cols>
@@ -6528,6 +6580,12 @@
         <v>144.0</v>
       </c>
       <c r="K18" s="20"/>
+      <c r="M18" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19">
       <c r="A19" s="30" t="s">
@@ -6555,6 +6613,12 @@
         <v>145.0</v>
       </c>
       <c r="K19" s="20"/>
+      <c r="M19" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20">
       <c r="A20" s="30" t="s">
@@ -6582,6 +6646,18 @@
         <v>146.0</v>
       </c>
       <c r="K20" s="20"/>
+      <c r="M20" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N20" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O20" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P20" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="30" t="s">
@@ -6609,6 +6685,22 @@
         <v>147.0</v>
       </c>
       <c r="K21" s="20"/>
+      <c r="M21" s="41" t="str">
+        <f t="shared" ref="M21:P21" si="1">DEC2BIN(M20,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N21" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>00111110</v>
+      </c>
+      <c r="O21" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="P21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="30" t="s">
@@ -6636,6 +6728,12 @@
         <v>148.0</v>
       </c>
       <c r="K22" s="20"/>
+      <c r="M22" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23">
       <c r="A23" s="30" t="s">
@@ -6663,6 +6761,18 @@
         <v>149.0</v>
       </c>
       <c r="K23" s="20"/>
+      <c r="M23" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N23" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O23" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P23" s="40">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="30" t="s">
@@ -6690,9 +6800,22 @@
         <v>150.0</v>
       </c>
       <c r="K24" s="20"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="36"/>
+      <c r="M24" s="41" t="str">
+        <f t="shared" ref="M24:P24" si="2">DEC2BIN(M23,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N24" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>00111110</v>
+      </c>
+      <c r="O24" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
+      <c r="P24" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>00000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="30" t="s">
@@ -6720,9 +6843,12 @@
         <v>151.0</v>
       </c>
       <c r="K25" s="20"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
+      <c r="M25" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26">
       <c r="A26" s="30" t="s">
@@ -6750,9 +6876,18 @@
         <v>152.0</v>
       </c>
       <c r="K26" s="20"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="36"/>
+      <c r="M26" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N26" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O26" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P26" s="40">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="30" t="s">
@@ -6780,9 +6915,22 @@
         <v>153.0</v>
       </c>
       <c r="K27" s="20"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="36"/>
+      <c r="M27" s="41" t="str">
+        <f t="shared" ref="M27:P27" si="3">DEC2BIN(M26,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N27" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00111110</v>
+      </c>
+      <c r="O27" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="P27" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="30" t="s">
@@ -6810,9 +6958,12 @@
         <v>154.0</v>
       </c>
       <c r="K28" s="20"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="36"/>
+      <c r="M28" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29">
       <c r="A29" s="30" t="s">
@@ -6840,9 +6991,18 @@
         <v>155.0</v>
       </c>
       <c r="K29" s="20"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="36"/>
+      <c r="M29" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N29" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O29" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P29" s="40">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="30" t="s">
@@ -6870,10 +7030,22 @@
         <v>156.0</v>
       </c>
       <c r="K30" s="20"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="36"/>
+      <c r="M30" s="41" t="str">
+        <f t="shared" ref="M30:P30" si="4">DEC2BIN(M29,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N30" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>00111110</v>
+      </c>
+      <c r="O30" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>10000000</v>
+      </c>
+      <c r="P30" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>00111111</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="30" t="s">
@@ -6901,10 +7073,12 @@
         <v>157.0</v>
       </c>
       <c r="K31" s="20"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="36"/>
+      <c r="M31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" s="40" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="30" t="s">
@@ -6934,10 +7108,18 @@
       <c r="K32" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
+      <c r="M32" s="38">
+        <v>255.0</v>
+      </c>
+      <c r="N32" s="39">
+        <v>255.0</v>
+      </c>
+      <c r="O32" s="39">
+        <v>255.0</v>
+      </c>
+      <c r="P32" s="40">
+        <v>192.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="30" t="s">
@@ -6965,10 +7147,22 @@
       <c r="K33" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="36"/>
+      <c r="M33" s="41" t="str">
+        <f t="shared" ref="M33:P33" si="5">DEC2BIN(M32,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="N33" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>11111111</v>
+      </c>
+      <c r="O33" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>11111111</v>
+      </c>
+      <c r="P33" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>11000000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="30" t="s">
@@ -6987,10 +7181,10 @@
         <v>96.0</v>
       </c>
       <c r="G34" s="16"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="45"/>
     </row>
     <row r="35">
       <c r="A35" s="30" t="s">
@@ -7009,10 +7203,16 @@
         <v>97.0</v>
       </c>
       <c r="G35" s="16"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="36"/>
+      <c r="M35" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="26"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="45"/>
     </row>
     <row r="36">
       <c r="A36" s="30" t="s">
@@ -7031,10 +7231,16 @@
         <v>98.0</v>
       </c>
       <c r="G36" s="16"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="36"/>
+      <c r="M36" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="37"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="45"/>
     </row>
     <row r="37">
       <c r="A37" s="30" t="s">
@@ -7053,10 +7259,22 @@
         <v>99.0</v>
       </c>
       <c r="G37" s="16"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="36"/>
+      <c r="M37" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N37" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O37" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P37" s="40">
+        <v>64.0</v>
+      </c>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="45"/>
     </row>
     <row r="38">
       <c r="A38" s="30" t="s">
@@ -7075,10 +7293,26 @@
         <v>100.0</v>
       </c>
       <c r="G38" s="16"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="36"/>
+      <c r="M38" s="41" t="str">
+        <f t="shared" ref="M38:P38" si="6">DEC2BIN(M37,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N38" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>00111110</v>
+      </c>
+      <c r="O38" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>10000000</v>
+      </c>
+      <c r="P38" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>01000000</v>
+      </c>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="45"/>
     </row>
     <row r="39">
       <c r="A39" s="30" t="s">
@@ -7097,10 +7331,16 @@
         <v>101.0</v>
       </c>
       <c r="G39" s="16"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="36"/>
+      <c r="M39" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="37"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="45"/>
     </row>
     <row r="40">
       <c r="A40" s="30" t="s">
@@ -7119,10 +7359,22 @@
         <v>102.0</v>
       </c>
       <c r="G40" s="16"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="36"/>
+      <c r="M40" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N40" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O40" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P40" s="40">
+        <v>65.0</v>
+      </c>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="45"/>
     </row>
     <row r="41">
       <c r="A41" s="30" t="s">
@@ -7141,10 +7393,26 @@
         <v>103.0</v>
       </c>
       <c r="G41" s="16"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="36"/>
+      <c r="M41" s="41" t="str">
+        <f t="shared" ref="M41:P41" si="7">DEC2BIN(M40,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N41" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>00111110</v>
+      </c>
+      <c r="O41" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="P41" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>01000001</v>
+      </c>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="45"/>
     </row>
     <row r="42">
       <c r="A42" s="30" t="s">
@@ -7163,10 +7431,16 @@
         <v>104.0</v>
       </c>
       <c r="G42" s="16"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="36"/>
+      <c r="M42" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="37"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="45"/>
     </row>
     <row r="43">
       <c r="A43" s="30" t="s">
@@ -7185,10 +7459,22 @@
         <v>105.0</v>
       </c>
       <c r="G43" s="16"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="36"/>
+      <c r="M43" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N43" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O43" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P43" s="40">
+        <v>66.0</v>
+      </c>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="45"/>
     </row>
     <row r="44">
       <c r="A44" s="30" t="s">
@@ -7207,10 +7493,26 @@
         <v>106.0</v>
       </c>
       <c r="G44" s="16"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="36"/>
+      <c r="M44" s="41" t="str">
+        <f t="shared" ref="M44:P44" si="8">DEC2BIN(M43,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N44" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v>00111110</v>
+      </c>
+      <c r="O44" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v>10000000</v>
+      </c>
+      <c r="P44" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v>01000010</v>
+      </c>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="45"/>
     </row>
     <row r="45">
       <c r="A45" s="30" t="s">
@@ -7229,10 +7531,16 @@
         <v>107.0</v>
       </c>
       <c r="G45" s="16"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="36"/>
+      <c r="M45" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="37"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="45"/>
     </row>
     <row r="46">
       <c r="A46" s="30" t="s">
@@ -7251,10 +7559,22 @@
         <v>108.0</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="37"/>
+      <c r="M46" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N46" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O46" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P46" s="40">
+        <v>127.0</v>
+      </c>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="47"/>
     </row>
     <row r="47">
       <c r="A47" s="30" t="s">
@@ -7273,10 +7593,26 @@
         <v>109.0</v>
       </c>
       <c r="G47" s="16"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="37"/>
+      <c r="M47" s="41" t="str">
+        <f t="shared" ref="M47:P47" si="9">DEC2BIN(M46,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N47" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>00111110</v>
+      </c>
+      <c r="O47" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>10000000</v>
+      </c>
+      <c r="P47" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v>01111111</v>
+      </c>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="47"/>
     </row>
     <row r="48">
       <c r="A48" s="30" t="s">
@@ -7295,10 +7631,16 @@
         <v>110.0</v>
       </c>
       <c r="G48" s="16"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="37"/>
+      <c r="M48" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P48" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="47"/>
     </row>
     <row r="49">
       <c r="A49" s="30" t="s">
@@ -7317,10 +7659,22 @@
         <v>111.0</v>
       </c>
       <c r="G49" s="16"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="37"/>
+      <c r="M49" s="38">
+        <v>255.0</v>
+      </c>
+      <c r="N49" s="39">
+        <v>255.0</v>
+      </c>
+      <c r="O49" s="39">
+        <v>255.0</v>
+      </c>
+      <c r="P49" s="40">
+        <v>192.0</v>
+      </c>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="47"/>
     </row>
     <row r="50">
       <c r="A50" s="30" t="s">
@@ -7339,10 +7693,26 @@
         <v>112.0</v>
       </c>
       <c r="G50" s="16"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="37"/>
+      <c r="M50" s="41" t="str">
+        <f t="shared" ref="M50:P50" si="10">DEC2BIN(M49,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="N50" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>11111111</v>
+      </c>
+      <c r="O50" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>11111111</v>
+      </c>
+      <c r="P50" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>11000000</v>
+      </c>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="47"/>
     </row>
     <row r="51">
       <c r="A51" s="30" t="s">
@@ -7361,10 +7731,10 @@
         <v>113.0</v>
       </c>
       <c r="G51" s="16"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="37"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="47"/>
     </row>
     <row r="52">
       <c r="A52" s="30" t="s">
@@ -7383,10 +7753,16 @@
         <v>114.0</v>
       </c>
       <c r="G52" s="16"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="37"/>
+      <c r="M52" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="26"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="47"/>
     </row>
     <row r="53">
       <c r="A53" s="30" t="s">
@@ -7405,10 +7781,16 @@
         <v>115.0</v>
       </c>
       <c r="G53" s="16"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="37"/>
+      <c r="M53" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="37"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="47"/>
     </row>
     <row r="54">
       <c r="A54" s="30" t="s">
@@ -7427,10 +7809,22 @@
         <v>116.0</v>
       </c>
       <c r="G54" s="16"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="37"/>
+      <c r="M54" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N54" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O54" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P54" s="40">
+        <v>128.0</v>
+      </c>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="47"/>
     </row>
     <row r="55">
       <c r="A55" s="30" t="s">
@@ -7449,10 +7843,26 @@
         <v>117.0</v>
       </c>
       <c r="G55" s="16"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="37"/>
+      <c r="M55" s="41" t="str">
+        <f t="shared" ref="M55:P55" si="11">DEC2BIN(M54,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N55" s="42" t="str">
+        <f t="shared" si="11"/>
+        <v>00111110</v>
+      </c>
+      <c r="O55" s="42" t="str">
+        <f t="shared" si="11"/>
+        <v>10000000</v>
+      </c>
+      <c r="P55" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v>10000000</v>
+      </c>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="47"/>
     </row>
     <row r="56">
       <c r="A56" s="30" t="s">
@@ -7471,9 +7881,15 @@
         <v>118.0</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="37"/>
+      <c r="M56" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="37"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="47"/>
     </row>
     <row r="57">
       <c r="A57" s="30" t="s">
@@ -7492,9 +7908,21 @@
         <v>119.0</v>
       </c>
       <c r="G57" s="16"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="37"/>
+      <c r="M57" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N57" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O57" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P57" s="40">
+        <v>129.0</v>
+      </c>
+      <c r="T57" s="43"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="47"/>
     </row>
     <row r="58">
       <c r="A58" s="30" t="s">
@@ -7513,9 +7941,25 @@
         <v>120.0</v>
       </c>
       <c r="G58" s="16"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="37"/>
+      <c r="M58" s="41" t="str">
+        <f t="shared" ref="M58:P58" si="12">DEC2BIN(M57,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N58" s="42" t="str">
+        <f t="shared" si="12"/>
+        <v>00111110</v>
+      </c>
+      <c r="O58" s="42" t="str">
+        <f t="shared" si="12"/>
+        <v>10000000</v>
+      </c>
+      <c r="P58" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v>10000001</v>
+      </c>
+      <c r="T58" s="43"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="47"/>
     </row>
     <row r="59">
       <c r="A59" s="30" t="s">
@@ -7534,9 +7978,15 @@
         <v>121.0</v>
       </c>
       <c r="G59" s="16"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="37"/>
+      <c r="M59" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="37"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="47"/>
     </row>
     <row r="60">
       <c r="A60" s="30" t="s">
@@ -7555,9 +8005,21 @@
         <v>122.0</v>
       </c>
       <c r="G60" s="16"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="37"/>
+      <c r="M60" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N60" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O60" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P60" s="40">
+        <v>130.0</v>
+      </c>
+      <c r="T60" s="43"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="47"/>
     </row>
     <row r="61">
       <c r="A61" s="30" t="s">
@@ -7576,9 +8038,25 @@
         <v>123.0</v>
       </c>
       <c r="G61" s="16"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="36"/>
+      <c r="M61" s="41" t="str">
+        <f t="shared" ref="M61:P61" si="13">DEC2BIN(M60,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N61" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v>00111110</v>
+      </c>
+      <c r="O61" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v>10000000</v>
+      </c>
+      <c r="P61" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v>10000010</v>
+      </c>
+      <c r="T61" s="43"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="45"/>
     </row>
     <row r="62">
       <c r="A62" s="30" t="s">
@@ -7597,6 +8075,12 @@
         <v>124.0</v>
       </c>
       <c r="G62" s="16"/>
+      <c r="M62" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="37"/>
     </row>
     <row r="63">
       <c r="A63" s="30" t="s">
@@ -7615,6 +8099,18 @@
         <v>125.0</v>
       </c>
       <c r="G63" s="16"/>
+      <c r="M63" s="38">
+        <v>185.0</v>
+      </c>
+      <c r="N63" s="39">
+        <v>62.0</v>
+      </c>
+      <c r="O63" s="39">
+        <v>128.0</v>
+      </c>
+      <c r="P63" s="40">
+        <v>157.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="30" t="s">
@@ -7635,6 +8131,22 @@
       <c r="G64" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="M64" s="41" t="str">
+        <f t="shared" ref="M64:P64" si="14">DEC2BIN(M63,8)</f>
+        <v>10111001</v>
+      </c>
+      <c r="N64" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v>00111110</v>
+      </c>
+      <c r="O64" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v>10000000</v>
+      </c>
+      <c r="P64" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v>10011101</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="30" t="s">
@@ -7655,12 +8167,68 @@
       <c r="G65" s="15" t="s">
         <v>71</v>
       </c>
+      <c r="M65" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P65" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="M66" s="38">
+        <v>255.0</v>
+      </c>
+      <c r="N66" s="39">
+        <v>255.0</v>
+      </c>
+      <c r="O66" s="39">
+        <v>255.0</v>
+      </c>
+      <c r="P66" s="40">
+        <v>224.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="M67" s="41" t="str">
+        <f t="shared" ref="M67:P67" si="15">DEC2BIN(M66,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="N67" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v>11111111</v>
+      </c>
+      <c r="O67" s="42" t="str">
+        <f t="shared" si="15"/>
+        <v>11111111</v>
+      </c>
+      <c r="P67" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>11100000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="21">
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M48:O48"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M28:P28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Attila\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocskog\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA96411-5E07-4900-8A9D-33B562CFC51C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921E71D-CC9B-48A3-AE47-4692381DAC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ip cím" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="111">
   <si>
     <t>/30</t>
   </si>
@@ -283,9 +283,6 @@
     <t>10.0.0.1</t>
   </si>
   <si>
-    <t>255.0.0.0</t>
-  </si>
-  <si>
     <t>185.62.128.158</t>
   </si>
   <si>
@@ -359,12 +356,19 @@
   </si>
   <si>
     <t>Utolsó kiosztható IP</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$Ft-40E]_-;\-* #,##0.00\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -452,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -629,11 +633,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -660,6 +679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,6 +687,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -677,19 +700,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,14 +721,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -922,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -967,14 +989,14 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
@@ -986,12 +1008,12 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1003,12 +1025,12 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1020,12 +1042,12 @@
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1037,12 +1059,12 @@
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1054,12 +1076,12 @@
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1071,12 +1093,12 @@
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1088,12 +1110,12 @@
       <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1105,12 +1127,12 @@
       <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1122,12 +1144,12 @@
       <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1139,12 +1161,12 @@
       <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1156,12 +1178,12 @@
       <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1173,12 +1195,12 @@
       <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1190,12 +1212,12 @@
       <c r="B15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1207,12 +1229,12 @@
       <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1224,12 +1246,12 @@
       <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1241,12 +1263,12 @@
       <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1258,12 +1280,12 @@
       <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1275,12 +1297,12 @@
       <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="5" t="s">
         <v>26</v>
       </c>
@@ -1292,12 +1314,12 @@
       <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
@@ -1309,12 +1331,12 @@
       <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1326,12 +1348,12 @@
       <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="5" t="s">
         <v>29</v>
       </c>
@@ -1343,12 +1365,12 @@
       <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="5" t="s">
         <v>30</v>
       </c>
@@ -1360,12 +1382,12 @@
       <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1377,12 +1399,12 @@
       <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="5" t="s">
         <v>32</v>
       </c>
@@ -1394,12 +1416,12 @@
       <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="5" t="s">
         <v>33</v>
       </c>
@@ -1411,12 +1433,12 @@
       <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="5" t="s">
         <v>34</v>
       </c>
@@ -1428,12 +1450,12 @@
       <c r="B29" s="7">
         <v>27</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="5" t="s">
         <v>35</v>
       </c>
@@ -1445,12 +1467,12 @@
       <c r="B30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="5" t="s">
         <v>36</v>
       </c>
@@ -1462,12 +1484,12 @@
       <c r="B31" s="7">
         <v>29</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="5" t="s">
         <v>37</v>
       </c>
@@ -1479,12 +1501,12 @@
       <c r="B32" s="7">
         <v>30</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="5" t="s">
         <v>38</v>
       </c>
@@ -1496,12 +1518,12 @@
       <c r="B33" s="7">
         <v>31</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="5" t="s">
         <v>39</v>
       </c>
@@ -1513,12 +1535,12 @@
       <c r="B34" s="7">
         <v>32</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="5" t="s">
         <v>40</v>
       </c>
@@ -1530,12 +1552,12 @@
       <c r="B35" s="7">
         <v>33</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="5" t="s">
         <v>41</v>
       </c>
@@ -1547,12 +1569,12 @@
       <c r="B36" s="7">
         <v>34</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="5" t="s">
         <v>42</v>
       </c>
@@ -1564,12 +1586,12 @@
       <c r="B37" s="7">
         <v>35</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="5" t="s">
         <v>43</v>
       </c>
@@ -1581,12 +1603,12 @@
       <c r="B38" s="7">
         <v>36</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="5" t="s">
         <v>44</v>
       </c>
@@ -1598,12 +1620,12 @@
       <c r="B39" s="7">
         <v>37</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="5" t="s">
         <v>45</v>
       </c>
@@ -1615,12 +1637,12 @@
       <c r="B40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="5" t="s">
         <v>46</v>
       </c>
@@ -1632,12 +1654,12 @@
       <c r="B41" s="7">
         <v>39</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="5" t="s">
         <v>47</v>
       </c>
@@ -1649,12 +1671,12 @@
       <c r="B42" s="7">
         <v>40</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="5" t="s">
         <v>48</v>
       </c>
@@ -1666,12 +1688,12 @@
       <c r="B43" s="7">
         <v>41</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="5" t="s">
         <v>49</v>
       </c>
@@ -1683,12 +1705,12 @@
       <c r="B44" s="7">
         <v>42</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="5" t="s">
         <v>50</v>
       </c>
@@ -1700,12 +1722,12 @@
       <c r="B45" s="7">
         <v>43</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="5" t="s">
         <v>51</v>
       </c>
@@ -1717,12 +1739,12 @@
       <c r="B46" s="7">
         <v>44</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="5" t="s">
         <v>52</v>
       </c>
@@ -1734,12 +1756,12 @@
       <c r="B47" s="7">
         <v>45</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="5" t="s">
         <v>53</v>
       </c>
@@ -1751,12 +1773,12 @@
       <c r="B48" s="7">
         <v>46</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="5" t="s">
         <v>54</v>
       </c>
@@ -1768,12 +1790,12 @@
       <c r="B49" s="7">
         <v>47</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="5" t="s">
         <v>55</v>
       </c>
@@ -1785,12 +1807,12 @@
       <c r="B50" s="7">
         <v>48</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="5" t="s">
         <v>56</v>
       </c>
@@ -1802,12 +1824,12 @@
       <c r="B51" s="7">
         <v>49</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="5" t="s">
         <v>57</v>
       </c>
@@ -1819,12 +1841,12 @@
       <c r="B52" s="7">
         <v>50</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="5" t="s">
         <v>58</v>
       </c>
@@ -1836,12 +1858,12 @@
       <c r="B53" s="7">
         <v>51</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="5" t="s">
         <v>59</v>
       </c>
@@ -1853,12 +1875,12 @@
       <c r="B54" s="7">
         <v>52</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="5" t="s">
         <v>60</v>
       </c>
@@ -1870,12 +1892,12 @@
       <c r="B55" s="7">
         <v>53</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
       <c r="I55" s="5" t="s">
         <v>61</v>
       </c>
@@ -1887,12 +1909,12 @@
       <c r="B56" s="7">
         <v>54</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="5" t="s">
         <v>62</v>
       </c>
@@ -1904,12 +1926,12 @@
       <c r="B57" s="7">
         <v>55</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
       <c r="I57" s="5" t="s">
         <v>63</v>
       </c>
@@ -1921,12 +1943,12 @@
       <c r="B58" s="7">
         <v>56</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="5" t="s">
         <v>64</v>
       </c>
@@ -1938,12 +1960,12 @@
       <c r="B59" s="7">
         <v>57</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="5" t="s">
         <v>65</v>
       </c>
@@ -1955,12 +1977,12 @@
       <c r="B60" s="7">
         <v>58</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
       <c r="I60" s="5" t="s">
         <v>66</v>
       </c>
@@ -1972,12 +1994,12 @@
       <c r="B61" s="7">
         <v>59</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="5" t="s">
         <v>67</v>
       </c>
@@ -1989,12 +2011,12 @@
       <c r="B62" s="7">
         <v>60</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
       <c r="I62" s="5" t="s">
         <v>68</v>
       </c>
@@ -2006,12 +2028,12 @@
       <c r="B63" s="7">
         <v>61</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
       <c r="I63" s="5" t="s">
         <v>69</v>
       </c>
@@ -2023,12 +2045,12 @@
       <c r="B64" s="7">
         <v>62</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
       <c r="I64" s="5" t="s">
         <v>70</v>
       </c>
@@ -2040,12 +2062,12 @@
       <c r="B65" s="7">
         <v>63</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="27"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="28"/>
       <c r="I65" s="5" t="s">
         <v>71</v>
       </c>
@@ -2057,14 +2079,14 @@
       <c r="B66" s="7">
         <v>64</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="32" t="s">
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="27"/>
+      <c r="H66" s="28"/>
       <c r="I66" s="8" t="s">
         <v>8</v>
       </c>
@@ -2076,12 +2098,12 @@
       <c r="B67" s="7">
         <v>65</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
       <c r="I67" s="8" t="s">
         <v>9</v>
       </c>
@@ -2093,12 +2115,12 @@
       <c r="B68" s="7">
         <v>66</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
       <c r="I68" s="8" t="s">
         <v>11</v>
       </c>
@@ -2110,12 +2132,12 @@
       <c r="B69" s="7">
         <v>67</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
       <c r="I69" s="8" t="s">
         <v>12</v>
       </c>
@@ -2127,12 +2149,12 @@
       <c r="B70" s="7">
         <v>68</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
       <c r="I70" s="8" t="s">
         <v>13</v>
       </c>
@@ -2144,12 +2166,12 @@
       <c r="B71" s="7">
         <v>69</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
       <c r="I71" s="8" t="s">
         <v>14</v>
       </c>
@@ -2161,12 +2183,12 @@
       <c r="B72" s="7">
         <v>70</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
       <c r="I72" s="8" t="s">
         <v>15</v>
       </c>
@@ -2178,12 +2200,12 @@
       <c r="B73" s="7">
         <v>71</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
       <c r="I73" s="8" t="s">
         <v>16</v>
       </c>
@@ -2195,12 +2217,12 @@
       <c r="B74" s="7">
         <v>72</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
       <c r="I74" s="8" t="s">
         <v>17</v>
       </c>
@@ -2212,12 +2234,12 @@
       <c r="B75" s="7">
         <v>73</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
       <c r="I75" s="8" t="s">
         <v>18</v>
       </c>
@@ -2229,12 +2251,12 @@
       <c r="B76" s="7">
         <v>74</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
       <c r="I76" s="8" t="s">
         <v>19</v>
       </c>
@@ -2246,12 +2268,12 @@
       <c r="B77" s="7">
         <v>75</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
       <c r="I77" s="8" t="s">
         <v>20</v>
       </c>
@@ -2263,12 +2285,12 @@
       <c r="B78" s="7">
         <v>76</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
       <c r="I78" s="8" t="s">
         <v>21</v>
       </c>
@@ -2280,12 +2302,12 @@
       <c r="B79" s="7">
         <v>77</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
       <c r="I79" s="8" t="s">
         <v>22</v>
       </c>
@@ -2297,12 +2319,12 @@
       <c r="B80" s="7">
         <v>78</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
       <c r="I80" s="8" t="s">
         <v>23</v>
       </c>
@@ -2314,12 +2336,12 @@
       <c r="B81" s="7">
         <v>79</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
       <c r="I81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2331,12 +2353,12 @@
       <c r="B82" s="7">
         <v>80</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
       <c r="I82" s="8" t="s">
         <v>25</v>
       </c>
@@ -2348,12 +2370,12 @@
       <c r="B83" s="7">
         <v>81</v>
       </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
       <c r="I83" s="8" t="s">
         <v>26</v>
       </c>
@@ -2365,12 +2387,12 @@
       <c r="B84" s="7">
         <v>82</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
       <c r="I84" s="8" t="s">
         <v>27</v>
       </c>
@@ -2382,12 +2404,12 @@
       <c r="B85" s="7">
         <v>83</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
       <c r="I85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2399,12 +2421,12 @@
       <c r="B86" s="7">
         <v>84</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
       <c r="I86" s="8" t="s">
         <v>29</v>
       </c>
@@ -2416,12 +2438,12 @@
       <c r="B87" s="7">
         <v>85</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
       <c r="I87" s="8" t="s">
         <v>30</v>
       </c>
@@ -2433,12 +2455,12 @@
       <c r="B88" s="7">
         <v>86</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
       <c r="I88" s="8" t="s">
         <v>31</v>
       </c>
@@ -2450,12 +2472,12 @@
       <c r="B89" s="7">
         <v>87</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
       <c r="I89" s="8" t="s">
         <v>32</v>
       </c>
@@ -2467,12 +2489,12 @@
       <c r="B90" s="7">
         <v>88</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
       <c r="I90" s="8" t="s">
         <v>33</v>
       </c>
@@ -2484,12 +2506,12 @@
       <c r="B91" s="7">
         <v>89</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
       <c r="I91" s="8" t="s">
         <v>34</v>
       </c>
@@ -2501,12 +2523,12 @@
       <c r="B92" s="7">
         <v>90</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
       <c r="I92" s="8" t="s">
         <v>35</v>
       </c>
@@ -2518,12 +2540,12 @@
       <c r="B93" s="7">
         <v>91</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
       <c r="I93" s="8" t="s">
         <v>36</v>
       </c>
@@ -2535,12 +2557,12 @@
       <c r="B94" s="7">
         <v>92</v>
       </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
       <c r="I94" s="8" t="s">
         <v>37</v>
       </c>
@@ -2552,12 +2574,12 @@
       <c r="B95" s="7">
         <v>93</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
       <c r="I95" s="8" t="s">
         <v>38</v>
       </c>
@@ -2569,12 +2591,12 @@
       <c r="B96" s="7">
         <v>94</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
       <c r="I96" s="8" t="s">
         <v>39</v>
       </c>
@@ -2586,12 +2608,12 @@
       <c r="B97" s="7">
         <v>95</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
@@ -2601,12 +2623,12 @@
       <c r="B98" s="7">
         <v>96</v>
       </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
@@ -2616,12 +2638,12 @@
       <c r="B99" s="7">
         <v>97</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
@@ -2631,12 +2653,12 @@
       <c r="B100" s="7">
         <v>98</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
       <c r="I100" s="9"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
@@ -2646,12 +2668,12 @@
       <c r="B101" s="7">
         <v>99</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
       <c r="I101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
@@ -2661,12 +2683,12 @@
       <c r="B102" s="7">
         <v>100</v>
       </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
       <c r="I102" s="9"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1">
@@ -2676,12 +2698,12 @@
       <c r="B103" s="7">
         <v>101</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
       <c r="I103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1">
@@ -2691,12 +2713,12 @@
       <c r="B104" s="7">
         <v>102</v>
       </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
       <c r="I104" s="9"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1">
@@ -2706,12 +2728,12 @@
       <c r="B105" s="7">
         <v>103</v>
       </c>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
       <c r="I105" s="9"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1">
@@ -2721,12 +2743,12 @@
       <c r="B106" s="7">
         <v>104</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
       <c r="I106" s="9"/>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
@@ -2736,12 +2758,12 @@
       <c r="B107" s="7">
         <v>105</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
       <c r="I107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1">
@@ -2751,12 +2773,12 @@
       <c r="B108" s="7">
         <v>106</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
       <c r="I108" s="9"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1">
@@ -2766,12 +2788,12 @@
       <c r="B109" s="7">
         <v>107</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1">
@@ -2781,12 +2803,12 @@
       <c r="B110" s="7">
         <v>108</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
       <c r="I110" s="9"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1">
@@ -2796,12 +2818,12 @@
       <c r="B111" s="7">
         <v>109</v>
       </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
       <c r="I111" s="9"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1">
@@ -2811,12 +2833,12 @@
       <c r="B112" s="7">
         <v>110</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
       <c r="I112" s="9"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1">
@@ -2826,12 +2848,12 @@
       <c r="B113" s="7">
         <v>111</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
       <c r="I113" s="9"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1">
@@ -2841,12 +2863,12 @@
       <c r="B114" s="7">
         <v>112</v>
       </c>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1">
@@ -2856,12 +2878,12 @@
       <c r="B115" s="7">
         <v>113</v>
       </c>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
       <c r="I115" s="9"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1">
@@ -2871,12 +2893,12 @@
       <c r="B116" s="7">
         <v>114</v>
       </c>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
       <c r="I116" s="9"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1">
@@ -2886,12 +2908,12 @@
       <c r="B117" s="7">
         <v>115</v>
       </c>
-      <c r="C117" s="28"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
       <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1">
@@ -2901,12 +2923,12 @@
       <c r="B118" s="7">
         <v>116</v>
       </c>
-      <c r="C118" s="26"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
       <c r="I118" s="9"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1">
@@ -2916,12 +2938,12 @@
       <c r="B119" s="7">
         <v>117</v>
       </c>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
       <c r="I119" s="9"/>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1">
@@ -2931,12 +2953,12 @@
       <c r="B120" s="7">
         <v>118</v>
       </c>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
       <c r="I120" s="9"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1">
@@ -2946,12 +2968,12 @@
       <c r="B121" s="7">
         <v>119</v>
       </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
       <c r="I121" s="9"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1">
@@ -2961,12 +2983,12 @@
       <c r="B122" s="7">
         <v>120</v>
       </c>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
       <c r="I122" s="9"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
@@ -2976,12 +2998,12 @@
       <c r="B123" s="7">
         <v>121</v>
       </c>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
       <c r="I123" s="9"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1">
@@ -2991,12 +3013,12 @@
       <c r="B124" s="7">
         <v>122</v>
       </c>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
       <c r="I124" s="9"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1">
@@ -3006,12 +3028,12 @@
       <c r="B125" s="7">
         <v>123</v>
       </c>
-      <c r="C125" s="28"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
       <c r="I125" s="9"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1">
@@ -3021,12 +3043,12 @@
       <c r="B126" s="7">
         <v>124</v>
       </c>
-      <c r="C126" s="26"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
       <c r="I126" s="9"/>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1">
@@ -3036,12 +3058,12 @@
       <c r="B127" s="7">
         <v>125</v>
       </c>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
       <c r="I127" s="9"/>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1">
@@ -3051,12 +3073,12 @@
       <c r="B128" s="7">
         <v>126</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
       <c r="I128" s="10" t="s">
         <v>70</v>
       </c>
@@ -3068,12 +3090,12 @@
       <c r="B129" s="7">
         <v>127</v>
       </c>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
       <c r="I129" s="8" t="s">
         <v>71</v>
       </c>
@@ -3085,14 +3107,14 @@
       <c r="B130" s="7">
         <v>128</v>
       </c>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="33" t="s">
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
       <c r="I130" s="11" t="s">
         <v>8</v>
       </c>
@@ -3104,12 +3126,12 @@
       <c r="B131" s="7">
         <v>129</v>
       </c>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
       <c r="I131" s="11" t="s">
         <v>9</v>
       </c>
@@ -3121,12 +3143,12 @@
       <c r="B132" s="7">
         <v>130</v>
       </c>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
       <c r="I132" s="11" t="s">
         <v>74</v>
       </c>
@@ -3138,12 +3160,12 @@
       <c r="B133" s="7">
         <v>131</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
       <c r="I133" s="11" t="s">
         <v>11</v>
       </c>
@@ -3155,12 +3177,12 @@
       <c r="B134" s="7">
         <v>132</v>
       </c>
-      <c r="C134" s="26"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
       <c r="I134" s="11" t="s">
         <v>12</v>
       </c>
@@ -3172,12 +3194,12 @@
       <c r="B135" s="7">
         <v>133</v>
       </c>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
       <c r="I135" s="11" t="s">
         <v>13</v>
       </c>
@@ -3189,12 +3211,12 @@
       <c r="B136" s="7">
         <v>134</v>
       </c>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
       <c r="I136" s="11" t="s">
         <v>14</v>
       </c>
@@ -3206,12 +3228,12 @@
       <c r="B137" s="7">
         <v>135</v>
       </c>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
       <c r="I137" s="11" t="s">
         <v>15</v>
       </c>
@@ -3223,12 +3245,12 @@
       <c r="B138" s="7">
         <v>136</v>
       </c>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
       <c r="I138" s="11" t="s">
         <v>16</v>
       </c>
@@ -3240,12 +3262,12 @@
       <c r="B139" s="7">
         <v>137</v>
       </c>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
       <c r="I139" s="11" t="s">
         <v>17</v>
       </c>
@@ -3257,12 +3279,12 @@
       <c r="B140" s="7">
         <v>138</v>
       </c>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
       <c r="I140" s="11" t="s">
         <v>18</v>
       </c>
@@ -3274,12 +3296,12 @@
       <c r="B141" s="7">
         <v>139</v>
       </c>
-      <c r="C141" s="28"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
       <c r="I141" s="11" t="s">
         <v>19</v>
       </c>
@@ -3291,12 +3313,12 @@
       <c r="B142" s="7">
         <v>140</v>
       </c>
-      <c r="C142" s="26"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
       <c r="I142" s="11" t="s">
         <v>20</v>
       </c>
@@ -3308,12 +3330,12 @@
       <c r="B143" s="7">
         <v>141</v>
       </c>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
       <c r="I143" s="11" t="s">
         <v>21</v>
       </c>
@@ -3325,12 +3347,12 @@
       <c r="B144" s="7">
         <v>142</v>
       </c>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
       <c r="I144" s="11" t="s">
         <v>22</v>
       </c>
@@ -3342,12 +3364,12 @@
       <c r="B145" s="7">
         <v>143</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
       <c r="I145" s="11" t="s">
         <v>23</v>
       </c>
@@ -3359,12 +3381,12 @@
       <c r="B146" s="7">
         <v>144</v>
       </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
       <c r="I146" s="12"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1">
@@ -3374,12 +3396,12 @@
       <c r="B147" s="7">
         <v>145</v>
       </c>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
       <c r="I147" s="12"/>
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1">
@@ -3389,12 +3411,12 @@
       <c r="B148" s="7">
         <v>146</v>
       </c>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
       <c r="I148" s="12"/>
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1">
@@ -3404,12 +3426,12 @@
       <c r="B149" s="7">
         <v>147</v>
       </c>
-      <c r="C149" s="28"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
       <c r="I149" s="12"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" customHeight="1">
@@ -3419,12 +3441,12 @@
       <c r="B150" s="7">
         <v>148</v>
       </c>
-      <c r="C150" s="26"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
       <c r="I150" s="12"/>
     </row>
     <row r="151" spans="1:9" ht="15.75" customHeight="1">
@@ -3434,12 +3456,12 @@
       <c r="B151" s="7">
         <v>149</v>
       </c>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
       <c r="I151" s="12"/>
     </row>
     <row r="152" spans="1:9" ht="15.75" customHeight="1">
@@ -3449,12 +3471,12 @@
       <c r="B152" s="7">
         <v>150</v>
       </c>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
       <c r="I152" s="12"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" customHeight="1">
@@ -3464,12 +3486,12 @@
       <c r="B153" s="7">
         <v>151</v>
       </c>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
       <c r="I153" s="12"/>
     </row>
     <row r="154" spans="1:9" ht="15.75" customHeight="1">
@@ -3479,12 +3501,12 @@
       <c r="B154" s="7">
         <v>152</v>
       </c>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
       <c r="I154" s="12"/>
     </row>
     <row r="155" spans="1:9" ht="15.75" customHeight="1">
@@ -3494,12 +3516,12 @@
       <c r="B155" s="7">
         <v>153</v>
       </c>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
       <c r="I155" s="12"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" customHeight="1">
@@ -3509,12 +3531,12 @@
       <c r="B156" s="7">
         <v>154</v>
       </c>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
       <c r="I156" s="12"/>
     </row>
     <row r="157" spans="1:9" ht="15.75" customHeight="1">
@@ -3524,12 +3546,12 @@
       <c r="B157" s="7">
         <v>155</v>
       </c>
-      <c r="C157" s="28"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
       <c r="I157" s="12"/>
     </row>
     <row r="158" spans="1:9" ht="15.75" customHeight="1">
@@ -3539,12 +3561,12 @@
       <c r="B158" s="7">
         <v>156</v>
       </c>
-      <c r="C158" s="26"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
       <c r="I158" s="12"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" customHeight="1">
@@ -3554,12 +3576,12 @@
       <c r="B159" s="7">
         <v>157</v>
       </c>
-      <c r="C159" s="27"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="28"/>
       <c r="I159" s="12"/>
     </row>
     <row r="160" spans="1:9" ht="15.75" customHeight="1">
@@ -3569,12 +3591,12 @@
       <c r="B160" s="7">
         <v>158</v>
       </c>
-      <c r="C160" s="27"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
       <c r="I160" s="11" t="s">
         <v>70</v>
       </c>
@@ -3586,12 +3608,12 @@
       <c r="B161" s="7">
         <v>159</v>
       </c>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
       <c r="I161" s="11" t="s">
         <v>71</v>
       </c>
@@ -3603,12 +3625,12 @@
       <c r="B162" s="7">
         <v>160</v>
       </c>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="26"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
       <c r="I162" s="13"/>
     </row>
     <row r="163" spans="1:9" ht="15.75" customHeight="1">
@@ -3618,12 +3640,12 @@
       <c r="B163" s="7">
         <v>161</v>
       </c>
-      <c r="C163" s="27"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
       <c r="I163" s="13"/>
     </row>
     <row r="164" spans="1:9" ht="15.75" customHeight="1">
@@ -3633,12 +3655,12 @@
       <c r="B164" s="7">
         <v>162</v>
       </c>
-      <c r="C164" s="27"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28"/>
       <c r="I164" s="13"/>
     </row>
     <row r="165" spans="1:9" ht="15.75" customHeight="1">
@@ -3648,12 +3670,12 @@
       <c r="B165" s="7">
         <v>163</v>
       </c>
-      <c r="C165" s="28"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="28"/>
       <c r="I165" s="13"/>
     </row>
     <row r="166" spans="1:9" ht="15.75" customHeight="1">
@@ -3663,12 +3685,12 @@
       <c r="B166" s="7">
         <v>164</v>
       </c>
-      <c r="C166" s="26"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
+      <c r="H166" s="28"/>
       <c r="I166" s="13"/>
     </row>
     <row r="167" spans="1:9" ht="15.75" customHeight="1">
@@ -3678,12 +3700,12 @@
       <c r="B167" s="7">
         <v>165</v>
       </c>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="28"/>
       <c r="I167" s="13"/>
     </row>
     <row r="168" spans="1:9" ht="15.75" customHeight="1">
@@ -3693,12 +3715,12 @@
       <c r="B168" s="7">
         <v>166</v>
       </c>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28"/>
       <c r="I168" s="13"/>
     </row>
     <row r="169" spans="1:9" ht="15.75" customHeight="1">
@@ -3708,12 +3730,12 @@
       <c r="B169" s="7">
         <v>167</v>
       </c>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
       <c r="I169" s="13"/>
     </row>
     <row r="170" spans="1:9" ht="15.75" customHeight="1">
@@ -3723,12 +3745,12 @@
       <c r="B170" s="7">
         <v>168</v>
       </c>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="28"/>
       <c r="I170" s="13"/>
     </row>
     <row r="171" spans="1:9" ht="15.75" customHeight="1">
@@ -3738,12 +3760,12 @@
       <c r="B171" s="7">
         <v>169</v>
       </c>
-      <c r="C171" s="27"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
       <c r="I171" s="13"/>
     </row>
     <row r="172" spans="1:9" ht="15.75" customHeight="1">
@@ -3753,12 +3775,12 @@
       <c r="B172" s="7">
         <v>170</v>
       </c>
-      <c r="C172" s="27"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
       <c r="I172" s="13"/>
     </row>
     <row r="173" spans="1:9" ht="15.75" customHeight="1">
@@ -3768,12 +3790,12 @@
       <c r="B173" s="7">
         <v>171</v>
       </c>
-      <c r="C173" s="28"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
       <c r="I173" s="13"/>
     </row>
     <row r="174" spans="1:9" ht="15.75" customHeight="1">
@@ -3783,12 +3805,12 @@
       <c r="B174" s="7">
         <v>172</v>
       </c>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
       <c r="I174" s="13"/>
     </row>
     <row r="175" spans="1:9" ht="15.75" customHeight="1">
@@ -3798,12 +3820,12 @@
       <c r="B175" s="7">
         <v>173</v>
       </c>
-      <c r="C175" s="27"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="28"/>
       <c r="I175" s="13"/>
     </row>
     <row r="176" spans="1:9" ht="15.75" customHeight="1">
@@ -3813,12 +3835,12 @@
       <c r="B176" s="7">
         <v>174</v>
       </c>
-      <c r="C176" s="27"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
       <c r="I176" s="13"/>
     </row>
     <row r="177" spans="1:9" ht="15.75" customHeight="1">
@@ -3828,12 +3850,12 @@
       <c r="B177" s="7">
         <v>175</v>
       </c>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="28"/>
       <c r="I177" s="13"/>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1">
@@ -3843,12 +3865,12 @@
       <c r="B178" s="7">
         <v>176</v>
       </c>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
       <c r="I178" s="13"/>
     </row>
     <row r="179" spans="1:9" ht="15.75" customHeight="1">
@@ -3858,12 +3880,12 @@
       <c r="B179" s="7">
         <v>177</v>
       </c>
-      <c r="C179" s="27"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="28"/>
       <c r="I179" s="13"/>
     </row>
     <row r="180" spans="1:9" ht="15.75" customHeight="1">
@@ -3873,12 +3895,12 @@
       <c r="B180" s="7">
         <v>178</v>
       </c>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="28"/>
       <c r="I180" s="13"/>
     </row>
     <row r="181" spans="1:9" ht="15.75" customHeight="1">
@@ -3888,12 +3910,12 @@
       <c r="B181" s="7">
         <v>179</v>
       </c>
-      <c r="C181" s="28"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="28"/>
       <c r="I181" s="13"/>
     </row>
     <row r="182" spans="1:9" ht="15.75" customHeight="1">
@@ -3903,12 +3925,12 @@
       <c r="B182" s="7">
         <v>180</v>
       </c>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
       <c r="I182" s="13"/>
     </row>
     <row r="183" spans="1:9" ht="15.75" customHeight="1">
@@ -3918,12 +3940,12 @@
       <c r="B183" s="7">
         <v>181</v>
       </c>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
       <c r="I183" s="13"/>
     </row>
     <row r="184" spans="1:9" ht="15.75" customHeight="1">
@@ -3933,12 +3955,12 @@
       <c r="B184" s="7">
         <v>182</v>
       </c>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
       <c r="I184" s="13"/>
     </row>
     <row r="185" spans="1:9" ht="15.75" customHeight="1">
@@ -3948,12 +3970,12 @@
       <c r="B185" s="7">
         <v>183</v>
       </c>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
       <c r="I185" s="13"/>
     </row>
     <row r="186" spans="1:9" ht="15.75" customHeight="1">
@@ -3963,12 +3985,12 @@
       <c r="B186" s="7">
         <v>184</v>
       </c>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
       <c r="I186" s="13"/>
     </row>
     <row r="187" spans="1:9" ht="15.75" customHeight="1">
@@ -3978,12 +4000,12 @@
       <c r="B187" s="7">
         <v>185</v>
       </c>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
       <c r="I187" s="13"/>
     </row>
     <row r="188" spans="1:9" ht="15.75" customHeight="1">
@@ -3993,12 +4015,12 @@
       <c r="B188" s="7">
         <v>186</v>
       </c>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
       <c r="I188" s="13"/>
     </row>
     <row r="189" spans="1:9" ht="15.75" customHeight="1">
@@ -4008,12 +4030,12 @@
       <c r="B189" s="7">
         <v>187</v>
       </c>
-      <c r="C189" s="28"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
       <c r="I189" s="13"/>
     </row>
     <row r="190" spans="1:9" ht="15.75" customHeight="1">
@@ -4023,12 +4045,12 @@
       <c r="B190" s="7">
         <v>188</v>
       </c>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
       <c r="I190" s="13"/>
     </row>
     <row r="191" spans="1:9" ht="15.75" customHeight="1">
@@ -4038,12 +4060,12 @@
       <c r="B191" s="7">
         <v>189</v>
       </c>
-      <c r="C191" s="27"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
       <c r="I191" s="13"/>
     </row>
     <row r="192" spans="1:9" ht="15.75" customHeight="1">
@@ -4053,12 +4075,12 @@
       <c r="B192" s="7">
         <v>190</v>
       </c>
-      <c r="C192" s="27"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
       <c r="I192" s="13"/>
     </row>
     <row r="193" spans="1:9" ht="15.75" customHeight="1">
@@ -4068,12 +4090,12 @@
       <c r="B193" s="7">
         <v>191</v>
       </c>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="27"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="29"/>
+      <c r="H193" s="28"/>
       <c r="I193" s="13"/>
     </row>
     <row r="194" spans="1:9" ht="15.75" customHeight="1">
@@ -4083,12 +4105,12 @@
       <c r="B194" s="7">
         <v>192</v>
       </c>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
-      <c r="G194" s="26"/>
-      <c r="H194" s="27"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="28"/>
       <c r="I194" s="13"/>
     </row>
     <row r="195" spans="1:9" ht="15.75" customHeight="1">
@@ -4098,12 +4120,12 @@
       <c r="B195" s="7">
         <v>193</v>
       </c>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="28"/>
       <c r="I195" s="13"/>
     </row>
     <row r="196" spans="1:9" ht="15.75" customHeight="1">
@@ -4113,12 +4135,12 @@
       <c r="B196" s="7">
         <v>194</v>
       </c>
-      <c r="C196" s="27"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="28"/>
       <c r="I196" s="13"/>
     </row>
     <row r="197" spans="1:9" ht="15.75" customHeight="1">
@@ -4128,12 +4150,12 @@
       <c r="B197" s="7">
         <v>195</v>
       </c>
-      <c r="C197" s="28"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
+      <c r="H197" s="28"/>
       <c r="I197" s="13"/>
     </row>
     <row r="198" spans="1:9" ht="15.75" customHeight="1">
@@ -4143,12 +4165,12 @@
       <c r="B198" s="7">
         <v>196</v>
       </c>
-      <c r="C198" s="26"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
+      <c r="H198" s="28"/>
       <c r="I198" s="13"/>
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1">
@@ -4158,12 +4180,12 @@
       <c r="B199" s="7">
         <v>197</v>
       </c>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
       <c r="I199" s="13"/>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1">
@@ -4173,12 +4195,12 @@
       <c r="B200" s="7">
         <v>198</v>
       </c>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
+      <c r="H200" s="28"/>
       <c r="I200" s="13"/>
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1">
@@ -4188,12 +4210,12 @@
       <c r="B201" s="7">
         <v>199</v>
       </c>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="28"/>
       <c r="I201" s="13"/>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1">
@@ -4203,12 +4225,12 @@
       <c r="B202" s="7">
         <v>200</v>
       </c>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
+      <c r="H202" s="28"/>
       <c r="I202" s="13"/>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1">
@@ -4218,12 +4240,12 @@
       <c r="B203" s="7">
         <v>201</v>
       </c>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="28"/>
       <c r="I203" s="13"/>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1">
@@ -4233,12 +4255,12 @@
       <c r="B204" s="7">
         <v>202</v>
       </c>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
+      <c r="H204" s="28"/>
       <c r="I204" s="13"/>
     </row>
     <row r="205" spans="1:9" ht="15.75" customHeight="1">
@@ -4248,12 +4270,12 @@
       <c r="B205" s="7">
         <v>203</v>
       </c>
-      <c r="C205" s="28"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="28"/>
       <c r="I205" s="13"/>
     </row>
     <row r="206" spans="1:9" ht="15.75" customHeight="1">
@@ -4263,12 +4285,12 @@
       <c r="B206" s="7">
         <v>204</v>
       </c>
-      <c r="C206" s="26"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28"/>
+      <c r="H206" s="28"/>
       <c r="I206" s="13"/>
     </row>
     <row r="207" spans="1:9" ht="15.75" customHeight="1">
@@ -4278,12 +4300,12 @@
       <c r="B207" s="7">
         <v>205</v>
       </c>
-      <c r="C207" s="27"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
+      <c r="H207" s="28"/>
       <c r="I207" s="13"/>
     </row>
     <row r="208" spans="1:9" ht="15.75" customHeight="1">
@@ -4293,12 +4315,12 @@
       <c r="B208" s="7">
         <v>206</v>
       </c>
-      <c r="C208" s="27"/>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="28"/>
+      <c r="H208" s="28"/>
       <c r="I208" s="13"/>
     </row>
     <row r="209" spans="1:9" ht="15.75" customHeight="1">
@@ -4308,12 +4330,12 @@
       <c r="B209" s="7">
         <v>207</v>
       </c>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28"/>
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
+      <c r="C209" s="29"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="29"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="28"/>
+      <c r="H209" s="28"/>
       <c r="I209" s="13"/>
     </row>
     <row r="210" spans="1:9" ht="15.75" customHeight="1">
@@ -4323,12 +4345,12 @@
       <c r="B210" s="7">
         <v>208</v>
       </c>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
+      <c r="H210" s="28"/>
       <c r="I210" s="13"/>
     </row>
     <row r="211" spans="1:9" ht="15.75" customHeight="1">
@@ -4338,12 +4360,12 @@
       <c r="B211" s="7">
         <v>209</v>
       </c>
-      <c r="C211" s="27"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
+      <c r="H211" s="28"/>
       <c r="I211" s="13"/>
     </row>
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
@@ -4353,12 +4375,12 @@
       <c r="B212" s="7">
         <v>210</v>
       </c>
-      <c r="C212" s="27"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="27"/>
-      <c r="G212" s="27"/>
-      <c r="H212" s="27"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="28"/>
+      <c r="H212" s="28"/>
       <c r="I212" s="13"/>
     </row>
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
@@ -4368,12 +4390,12 @@
       <c r="B213" s="7">
         <v>211</v>
       </c>
-      <c r="C213" s="28"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="28"/>
       <c r="I213" s="13"/>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1">
@@ -4383,12 +4405,12 @@
       <c r="B214" s="7">
         <v>212</v>
       </c>
-      <c r="C214" s="26"/>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="27"/>
-      <c r="G214" s="27"/>
-      <c r="H214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="28"/>
+      <c r="H214" s="28"/>
       <c r="I214" s="13"/>
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1">
@@ -4398,12 +4420,12 @@
       <c r="B215" s="7">
         <v>213</v>
       </c>
-      <c r="C215" s="27"/>
-      <c r="D215" s="27"/>
-      <c r="E215" s="27"/>
-      <c r="F215" s="27"/>
-      <c r="G215" s="27"/>
-      <c r="H215" s="27"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="28"/>
+      <c r="H215" s="28"/>
       <c r="I215" s="13"/>
     </row>
     <row r="216" spans="1:9" ht="15.75" customHeight="1">
@@ -4413,12 +4435,12 @@
       <c r="B216" s="7">
         <v>214</v>
       </c>
-      <c r="C216" s="27"/>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27"/>
-      <c r="F216" s="27"/>
-      <c r="G216" s="27"/>
-      <c r="H216" s="27"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="28"/>
+      <c r="H216" s="28"/>
       <c r="I216" s="13"/>
     </row>
     <row r="217" spans="1:9" ht="15.75" customHeight="1">
@@ -4428,12 +4450,12 @@
       <c r="B217" s="7">
         <v>215</v>
       </c>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
-      <c r="E217" s="27"/>
-      <c r="F217" s="27"/>
-      <c r="G217" s="27"/>
-      <c r="H217" s="27"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="28"/>
+      <c r="H217" s="28"/>
       <c r="I217" s="13"/>
     </row>
     <row r="218" spans="1:9" ht="15.75" customHeight="1">
@@ -4443,12 +4465,12 @@
       <c r="B218" s="7">
         <v>216</v>
       </c>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="27"/>
-      <c r="F218" s="27"/>
-      <c r="G218" s="27"/>
-      <c r="H218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="28"/>
+      <c r="H218" s="28"/>
       <c r="I218" s="13"/>
     </row>
     <row r="219" spans="1:9" ht="15.75" customHeight="1">
@@ -4458,12 +4480,12 @@
       <c r="B219" s="7">
         <v>217</v>
       </c>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="27"/>
-      <c r="G219" s="27"/>
-      <c r="H219" s="27"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="28"/>
+      <c r="H219" s="28"/>
       <c r="I219" s="13"/>
     </row>
     <row r="220" spans="1:9" ht="15.75" customHeight="1">
@@ -4473,12 +4495,12 @@
       <c r="B220" s="7">
         <v>218</v>
       </c>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="28"/>
+      <c r="H220" s="28"/>
       <c r="I220" s="13"/>
     </row>
     <row r="221" spans="1:9" ht="15.75" customHeight="1">
@@ -4488,12 +4510,12 @@
       <c r="B221" s="7">
         <v>219</v>
       </c>
-      <c r="C221" s="28"/>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="27"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
+      <c r="H221" s="28"/>
       <c r="I221" s="13"/>
     </row>
     <row r="222" spans="1:9" ht="15.75" customHeight="1">
@@ -4503,12 +4525,12 @@
       <c r="B222" s="7">
         <v>220</v>
       </c>
-      <c r="C222" s="26"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="27"/>
-      <c r="F222" s="27"/>
-      <c r="G222" s="27"/>
-      <c r="H222" s="27"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="28"/>
+      <c r="G222" s="28"/>
+      <c r="H222" s="28"/>
       <c r="I222" s="13"/>
     </row>
     <row r="223" spans="1:9" ht="15.75" customHeight="1">
@@ -4518,12 +4540,12 @@
       <c r="B223" s="7">
         <v>221</v>
       </c>
-      <c r="C223" s="27"/>
-      <c r="D223" s="27"/>
-      <c r="E223" s="27"/>
-      <c r="F223" s="27"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="27"/>
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
+      <c r="H223" s="28"/>
       <c r="I223" s="13"/>
     </row>
     <row r="224" spans="1:9" ht="15.75" customHeight="1">
@@ -4533,12 +4555,12 @@
       <c r="B224" s="7">
         <v>222</v>
       </c>
-      <c r="C224" s="27"/>
-      <c r="D224" s="27"/>
-      <c r="E224" s="27"/>
-      <c r="F224" s="27"/>
-      <c r="G224" s="27"/>
-      <c r="H224" s="27"/>
+      <c r="C224" s="28"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28"/>
+      <c r="H224" s="28"/>
       <c r="I224" s="13"/>
     </row>
     <row r="225" spans="1:9" ht="15.75" customHeight="1">
@@ -4548,12 +4570,12 @@
       <c r="B225" s="7">
         <v>223</v>
       </c>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="29"/>
+      <c r="F225" s="29"/>
+      <c r="G225" s="28"/>
+      <c r="H225" s="28"/>
       <c r="I225" s="13"/>
     </row>
     <row r="226" spans="1:9" ht="15.75" customHeight="1">
@@ -4563,12 +4585,12 @@
       <c r="B226" s="7">
         <v>224</v>
       </c>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="26"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
+      <c r="G226" s="28"/>
+      <c r="H226" s="28"/>
       <c r="I226" s="13"/>
     </row>
     <row r="227" spans="1:9" ht="15.75" customHeight="1">
@@ -4578,12 +4600,12 @@
       <c r="B227" s="7">
         <v>225</v>
       </c>
-      <c r="C227" s="27"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="28"/>
+      <c r="H227" s="28"/>
       <c r="I227" s="13"/>
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1">
@@ -4593,12 +4615,12 @@
       <c r="B228" s="7">
         <v>226</v>
       </c>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
+      <c r="C228" s="28"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
+      <c r="H228" s="28"/>
       <c r="I228" s="13"/>
     </row>
     <row r="229" spans="1:9" ht="15.75" customHeight="1">
@@ -4608,12 +4630,12 @@
       <c r="B229" s="7">
         <v>227</v>
       </c>
-      <c r="C229" s="28"/>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
-      <c r="H229" s="27"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
+      <c r="H229" s="28"/>
       <c r="I229" s="13"/>
     </row>
     <row r="230" spans="1:9" ht="15.75" customHeight="1">
@@ -4623,12 +4645,12 @@
       <c r="B230" s="7">
         <v>228</v>
       </c>
-      <c r="C230" s="26"/>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
+      <c r="H230" s="28"/>
       <c r="I230" s="13"/>
     </row>
     <row r="231" spans="1:9" ht="15.75" customHeight="1">
@@ -4638,12 +4660,12 @@
       <c r="B231" s="7">
         <v>229</v>
       </c>
-      <c r="C231" s="27"/>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
-      <c r="F231" s="27"/>
-      <c r="G231" s="27"/>
-      <c r="H231" s="27"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
+      <c r="H231" s="28"/>
       <c r="I231" s="13"/>
     </row>
     <row r="232" spans="1:9" ht="15.75" customHeight="1">
@@ -4653,12 +4675,12 @@
       <c r="B232" s="7">
         <v>230</v>
       </c>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27"/>
+      <c r="C232" s="28"/>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
+      <c r="H232" s="28"/>
       <c r="I232" s="13"/>
     </row>
     <row r="233" spans="1:9" ht="15.75" customHeight="1">
@@ -4668,12 +4690,12 @@
       <c r="B233" s="7">
         <v>231</v>
       </c>
-      <c r="C233" s="28"/>
-      <c r="D233" s="28"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
+      <c r="H233" s="28"/>
       <c r="I233" s="13"/>
     </row>
     <row r="234" spans="1:9" ht="15.75" customHeight="1">
@@ -4683,12 +4705,12 @@
       <c r="B234" s="7">
         <v>232</v>
       </c>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
-      <c r="E234" s="27"/>
-      <c r="F234" s="27"/>
-      <c r="G234" s="27"/>
-      <c r="H234" s="27"/>
+      <c r="C234" s="27"/>
+      <c r="D234" s="27"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
+      <c r="H234" s="28"/>
       <c r="I234" s="13"/>
     </row>
     <row r="235" spans="1:9" ht="15.75" customHeight="1">
@@ -4698,12 +4720,12 @@
       <c r="B235" s="7">
         <v>233</v>
       </c>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="27"/>
-      <c r="G235" s="27"/>
-      <c r="H235" s="27"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28"/>
+      <c r="H235" s="28"/>
       <c r="I235" s="13"/>
     </row>
     <row r="236" spans="1:9" ht="15.75" customHeight="1">
@@ -4713,12 +4735,12 @@
       <c r="B236" s="7">
         <v>234</v>
       </c>
-      <c r="C236" s="27"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
-      <c r="F236" s="27"/>
-      <c r="G236" s="27"/>
-      <c r="H236" s="27"/>
+      <c r="C236" s="28"/>
+      <c r="D236" s="28"/>
+      <c r="E236" s="28"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28"/>
+      <c r="H236" s="28"/>
       <c r="I236" s="13"/>
     </row>
     <row r="237" spans="1:9" ht="15.75" customHeight="1">
@@ -4728,12 +4750,12 @@
       <c r="B237" s="7">
         <v>235</v>
       </c>
-      <c r="C237" s="28"/>
-      <c r="D237" s="27"/>
-      <c r="E237" s="27"/>
-      <c r="F237" s="27"/>
-      <c r="G237" s="27"/>
-      <c r="H237" s="27"/>
+      <c r="C237" s="29"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
+      <c r="H237" s="28"/>
       <c r="I237" s="13"/>
     </row>
     <row r="238" spans="1:9" ht="15.75" customHeight="1">
@@ -4743,12 +4765,12 @@
       <c r="B238" s="7">
         <v>236</v>
       </c>
-      <c r="C238" s="26"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-      <c r="F238" s="27"/>
-      <c r="G238" s="27"/>
-      <c r="H238" s="27"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="28"/>
+      <c r="E238" s="28"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28"/>
+      <c r="H238" s="28"/>
       <c r="I238" s="13"/>
     </row>
     <row r="239" spans="1:9" ht="15.75" customHeight="1">
@@ -4758,12 +4780,12 @@
       <c r="B239" s="7">
         <v>237</v>
       </c>
-      <c r="C239" s="27"/>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
+      <c r="H239" s="28"/>
       <c r="I239" s="13"/>
     </row>
     <row r="240" spans="1:9" ht="15.75" customHeight="1">
@@ -4773,12 +4795,12 @@
       <c r="B240" s="7">
         <v>238</v>
       </c>
-      <c r="C240" s="27"/>
-      <c r="D240" s="27"/>
-      <c r="E240" s="27"/>
-      <c r="F240" s="27"/>
-      <c r="G240" s="27"/>
-      <c r="H240" s="27"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="28"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
+      <c r="H240" s="28"/>
       <c r="I240" s="13"/>
     </row>
     <row r="241" spans="1:9" ht="15.75" customHeight="1">
@@ -4788,12 +4810,12 @@
       <c r="B241" s="7">
         <v>239</v>
       </c>
-      <c r="C241" s="28"/>
-      <c r="D241" s="28"/>
-      <c r="E241" s="28"/>
-      <c r="F241" s="27"/>
-      <c r="G241" s="27"/>
-      <c r="H241" s="27"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="29"/>
+      <c r="E241" s="29"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
+      <c r="H241" s="28"/>
       <c r="I241" s="13"/>
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1">
@@ -4803,12 +4825,12 @@
       <c r="B242" s="7">
         <v>240</v>
       </c>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
-      <c r="F242" s="27"/>
-      <c r="G242" s="27"/>
-      <c r="H242" s="27"/>
+      <c r="C242" s="27"/>
+      <c r="D242" s="27"/>
+      <c r="E242" s="27"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="28"/>
+      <c r="H242" s="28"/>
       <c r="I242" s="13"/>
     </row>
     <row r="243" spans="1:9" ht="15.75" customHeight="1">
@@ -4818,12 +4840,12 @@
       <c r="B243" s="7">
         <v>241</v>
       </c>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27"/>
-      <c r="E243" s="27"/>
-      <c r="F243" s="27"/>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="28"/>
+      <c r="H243" s="28"/>
       <c r="I243" s="13"/>
     </row>
     <row r="244" spans="1:9" ht="15.75" customHeight="1">
@@ -4833,12 +4855,12 @@
       <c r="B244" s="7">
         <v>242</v>
       </c>
-      <c r="C244" s="27"/>
-      <c r="D244" s="27"/>
-      <c r="E244" s="27"/>
-      <c r="F244" s="27"/>
-      <c r="G244" s="27"/>
-      <c r="H244" s="27"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
+      <c r="H244" s="28"/>
       <c r="I244" s="13"/>
     </row>
     <row r="245" spans="1:9" ht="15.75" customHeight="1">
@@ -4848,12 +4870,12 @@
       <c r="B245" s="7">
         <v>243</v>
       </c>
-      <c r="C245" s="28"/>
-      <c r="D245" s="27"/>
-      <c r="E245" s="27"/>
-      <c r="F245" s="27"/>
-      <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="28"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="28"/>
+      <c r="H245" s="28"/>
       <c r="I245" s="13"/>
     </row>
     <row r="246" spans="1:9" ht="15.75" customHeight="1">
@@ -4863,12 +4885,12 @@
       <c r="B246" s="7">
         <v>244</v>
       </c>
-      <c r="C246" s="26"/>
-      <c r="D246" s="27"/>
-      <c r="E246" s="27"/>
-      <c r="F246" s="27"/>
-      <c r="G246" s="27"/>
-      <c r="H246" s="27"/>
+      <c r="C246" s="27"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="28"/>
+      <c r="H246" s="28"/>
       <c r="I246" s="13"/>
     </row>
     <row r="247" spans="1:9" ht="15.75" customHeight="1">
@@ -4878,12 +4900,12 @@
       <c r="B247" s="7">
         <v>245</v>
       </c>
-      <c r="C247" s="27"/>
-      <c r="D247" s="27"/>
-      <c r="E247" s="27"/>
-      <c r="F247" s="27"/>
-      <c r="G247" s="27"/>
-      <c r="H247" s="27"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="28"/>
+      <c r="H247" s="28"/>
       <c r="I247" s="13"/>
     </row>
     <row r="248" spans="1:9" ht="15.75" customHeight="1">
@@ -4893,12 +4915,12 @@
       <c r="B248" s="7">
         <v>246</v>
       </c>
-      <c r="C248" s="27"/>
-      <c r="D248" s="27"/>
-      <c r="E248" s="27"/>
-      <c r="F248" s="27"/>
-      <c r="G248" s="27"/>
-      <c r="H248" s="27"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="28"/>
+      <c r="H248" s="28"/>
       <c r="I248" s="13"/>
     </row>
     <row r="249" spans="1:9" ht="15.75" customHeight="1">
@@ -4908,12 +4930,12 @@
       <c r="B249" s="7">
         <v>247</v>
       </c>
-      <c r="C249" s="28"/>
-      <c r="D249" s="28"/>
-      <c r="E249" s="27"/>
-      <c r="F249" s="27"/>
-      <c r="G249" s="27"/>
-      <c r="H249" s="27"/>
+      <c r="C249" s="29"/>
+      <c r="D249" s="29"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28"/>
+      <c r="H249" s="28"/>
       <c r="I249" s="13"/>
     </row>
     <row r="250" spans="1:9" ht="15.75" customHeight="1">
@@ -4923,12 +4945,12 @@
       <c r="B250" s="7">
         <v>248</v>
       </c>
-      <c r="C250" s="26"/>
-      <c r="D250" s="26"/>
-      <c r="E250" s="27"/>
-      <c r="F250" s="27"/>
-      <c r="G250" s="27"/>
-      <c r="H250" s="27"/>
+      <c r="C250" s="27"/>
+      <c r="D250" s="27"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="28"/>
+      <c r="H250" s="28"/>
       <c r="I250" s="13"/>
     </row>
     <row r="251" spans="1:9" ht="15.75" customHeight="1">
@@ -4938,12 +4960,12 @@
       <c r="B251" s="7">
         <v>249</v>
       </c>
-      <c r="C251" s="27"/>
-      <c r="D251" s="27"/>
-      <c r="E251" s="27"/>
-      <c r="F251" s="27"/>
-      <c r="G251" s="27"/>
-      <c r="H251" s="27"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28"/>
+      <c r="F251" s="28"/>
+      <c r="G251" s="28"/>
+      <c r="H251" s="28"/>
       <c r="I251" s="13"/>
     </row>
     <row r="252" spans="1:9" ht="15.75" customHeight="1">
@@ -4953,12 +4975,12 @@
       <c r="B252" s="7">
         <v>250</v>
       </c>
-      <c r="C252" s="27"/>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
-      <c r="F252" s="27"/>
-      <c r="G252" s="27"/>
-      <c r="H252" s="27"/>
+      <c r="C252" s="28"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="28"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="28"/>
+      <c r="H252" s="28"/>
       <c r="I252" s="13"/>
     </row>
     <row r="253" spans="1:9" ht="15.75" customHeight="1">
@@ -4968,12 +4990,12 @@
       <c r="B253" s="7">
         <v>251</v>
       </c>
-      <c r="C253" s="28"/>
-      <c r="D253" s="27"/>
-      <c r="E253" s="27"/>
-      <c r="F253" s="27"/>
-      <c r="G253" s="27"/>
-      <c r="H253" s="27"/>
+      <c r="C253" s="29"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="28"/>
+      <c r="H253" s="28"/>
       <c r="I253" s="13"/>
     </row>
     <row r="254" spans="1:9" ht="15.75" customHeight="1">
@@ -4983,12 +5005,12 @@
       <c r="B254" s="7">
         <v>252</v>
       </c>
-      <c r="C254" s="26"/>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
-      <c r="F254" s="27"/>
-      <c r="G254" s="27"/>
-      <c r="H254" s="27"/>
+      <c r="C254" s="27"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="28"/>
+      <c r="F254" s="28"/>
+      <c r="G254" s="28"/>
+      <c r="H254" s="28"/>
       <c r="I254" s="13"/>
     </row>
     <row r="255" spans="1:9" ht="15.75" customHeight="1">
@@ -4998,12 +5020,12 @@
       <c r="B255" s="7">
         <v>253</v>
       </c>
-      <c r="C255" s="27"/>
-      <c r="D255" s="27"/>
-      <c r="E255" s="27"/>
-      <c r="F255" s="27"/>
-      <c r="G255" s="27"/>
-      <c r="H255" s="27"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="28"/>
+      <c r="H255" s="28"/>
       <c r="I255" s="13"/>
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1">
@@ -5013,12 +5035,12 @@
       <c r="B256" s="7">
         <v>254</v>
       </c>
-      <c r="C256" s="27"/>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27"/>
-      <c r="F256" s="27"/>
-      <c r="G256" s="27"/>
-      <c r="H256" s="27"/>
+      <c r="C256" s="28"/>
+      <c r="D256" s="28"/>
+      <c r="E256" s="28"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="28"/>
+      <c r="H256" s="28"/>
       <c r="I256" s="13"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1">
@@ -5028,12 +5050,12 @@
       <c r="B257" s="15">
         <v>255</v>
       </c>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
-      <c r="E257" s="28"/>
-      <c r="F257" s="28"/>
-      <c r="G257" s="28"/>
-      <c r="H257" s="28"/>
+      <c r="C257" s="29"/>
+      <c r="D257" s="29"/>
+      <c r="E257" s="29"/>
+      <c r="F257" s="29"/>
+      <c r="G257" s="29"/>
+      <c r="H257" s="29"/>
       <c r="I257" s="13"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1"/>
@@ -5781,18 +5803,84 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D193"/>
     <mergeCell ref="G2:G65"/>
     <mergeCell ref="H2:H129"/>
     <mergeCell ref="C6:C9"/>
@@ -5817,6 +5905,18 @@
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="D202:D209"/>
     <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="F130:F161"/>
     <mergeCell ref="C226:C229"/>
     <mergeCell ref="D226:D233"/>
     <mergeCell ref="C230:C233"/>
@@ -5829,84 +5929,6 @@
     <mergeCell ref="C218:C221"/>
     <mergeCell ref="D218:D225"/>
     <mergeCell ref="C222:C225"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5920,31 +5942,32 @@
   </sheetPr>
   <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="43" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
       <c r="M1" s="16"/>
       <c r="N1" s="17" t="s">
         <v>70</v>
@@ -6043,8 +6066,8 @@
       <c r="R3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="17" t="s">
-        <v>85</v>
+      <c r="S3" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6079,19 +6102,19 @@
         <v>77</v>
       </c>
       <c r="N4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="Q4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>85</v>
+      <c r="S4" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6122,6 +6145,7 @@
       <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="S5" s="53"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="17" t="s">
@@ -6152,14 +6176,12 @@
         <v>12</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="17" t="s">
-        <v>78</v>
-      </c>
+      <c r="S6" s="53"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="17" t="s">
@@ -6190,13 +6212,13 @@
         <v>13</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="S7" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6235,13 +6257,13 @@
         <v>78</v>
       </c>
       <c r="Q8" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>85</v>
+      <c r="S8" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6276,11 +6298,12 @@
         <v>75</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="S9" s="53"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="17" t="s">
@@ -6314,20 +6337,18 @@
         <v>76</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>80</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="17" t="s">
-        <v>78</v>
-      </c>
+      <c r="S10" s="53"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="17" t="s">
@@ -6361,19 +6382,19 @@
         <v>77</v>
       </c>
       <c r="N11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="O11" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>85</v>
+      <c r="S11" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6405,13 +6426,13 @@
         <v>18</v>
       </c>
       <c r="Q12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>85</v>
+      <c r="S12" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6442,6 +6463,7 @@
       <c r="K13" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="S13" s="53"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="17" t="s">
@@ -6472,14 +6494,12 @@
         <v>20</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="17" t="s">
-        <v>78</v>
-      </c>
+      <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="17" t="s">
@@ -6510,13 +6530,13 @@
         <v>21</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6548,16 +6568,16 @@
         <v>22</v>
       </c>
       <c r="Q16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="R16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="S16" s="53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="17" t="s">
         <v>6</v>
       </c>
@@ -6586,7 +6606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:19">
       <c r="A18" s="17" t="s">
         <v>6</v>
       </c>
@@ -6612,14 +6632,14 @@
         <v>144</v>
       </c>
       <c r="K18" s="12"/>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="17" t="s">
         <v>6</v>
       </c>
@@ -6645,14 +6665,14 @@
         <v>145</v>
       </c>
       <c r="K19" s="12"/>
-      <c r="M19" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="M19" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
@@ -6691,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:19">
       <c r="A21" s="17" t="s">
         <v>6</v>
       </c>
@@ -6734,7 +6754,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:19">
       <c r="A22" s="17" t="s">
         <v>6</v>
       </c>
@@ -6760,14 +6780,22 @@
         <v>148</v>
       </c>
       <c r="K22" s="12"/>
-      <c r="M22" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="M22" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+      <c r="R22" s="54">
+        <f>(2*64+32)*51</f>
+        <v>8160</v>
+      </c>
+      <c r="S22" s="55">
+        <f>R22*403.14</f>
+        <v>3289622.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="17" t="s">
         <v>6</v>
       </c>
@@ -6806,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:19">
       <c r="A24" s="17" t="s">
         <v>6</v>
       </c>
@@ -6849,7 +6877,7 @@
         <v>00000001</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:19">
       <c r="A25" s="17" t="s">
         <v>6</v>
       </c>
@@ -6875,14 +6903,14 @@
         <v>151</v>
       </c>
       <c r="K25" s="12"/>
-      <c r="M25" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="M25" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="17" t="s">
         <v>6</v>
       </c>
@@ -6921,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:19">
       <c r="A27" s="17" t="s">
         <v>6</v>
       </c>
@@ -6964,7 +6992,7 @@
         <v>00000010</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:19">
       <c r="A28" s="17" t="s">
         <v>6</v>
       </c>
@@ -6990,14 +7018,14 @@
         <v>154</v>
       </c>
       <c r="K28" s="12"/>
-      <c r="M28" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="36"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="M28" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="17" t="s">
         <v>6</v>
       </c>
@@ -7036,7 +7064,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:19">
       <c r="A30" s="17" t="s">
         <v>6</v>
       </c>
@@ -7079,7 +7107,7 @@
         <v>00111110</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:19">
       <c r="A31" s="17" t="s">
         <v>6</v>
       </c>
@@ -7105,14 +7133,14 @@
         <v>157</v>
       </c>
       <c r="K31" s="12"/>
-      <c r="M31" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="36"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="M31" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="17" t="s">
         <v>6</v>
       </c>
@@ -7195,10 +7223,10 @@
         <f t="shared" si="4"/>
         <v>00111111</v>
       </c>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="17" t="s">
@@ -7217,18 +7245,18 @@
         <v>96</v>
       </c>
       <c r="G34" s="9"/>
-      <c r="M34" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="M34" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="17" t="s">
@@ -7259,7 +7287,7 @@
       <c r="P35" s="23">
         <v>192</v>
       </c>
-      <c r="V35" s="51"/>
+      <c r="V35" s="26"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="17" t="s">
@@ -7294,7 +7322,7 @@
         <f t="shared" si="5"/>
         <v>11000000</v>
       </c>
-      <c r="V36" s="51"/>
+      <c r="V36" s="26"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="17" t="s">
@@ -7313,7 +7341,7 @@
         <v>99</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="V37" s="51"/>
+      <c r="V37" s="26"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="17" t="s">
@@ -7335,10 +7363,10 @@
       <c r="M38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="47"/>
-      <c r="V38" s="51"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="39"/>
+      <c r="V38" s="26"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="17" t="s">
@@ -7357,13 +7385,13 @@
         <v>101</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="M39" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="48"/>
-      <c r="V39" s="51"/>
+      <c r="M39" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="40"/>
+      <c r="V39" s="26"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="17" t="s">
@@ -7394,7 +7422,7 @@
       <c r="P40" s="23">
         <v>64</v>
       </c>
-      <c r="V40" s="51"/>
+      <c r="V40" s="26"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="17" t="s">
@@ -7429,7 +7457,7 @@
         <f t="shared" si="6"/>
         <v>01000000</v>
       </c>
-      <c r="V41" s="51"/>
+      <c r="V41" s="26"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="17" t="s">
@@ -7448,13 +7476,13 @@
         <v>104</v>
       </c>
       <c r="G42" s="9"/>
-      <c r="M42" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="48"/>
-      <c r="V42" s="51"/>
+      <c r="M42" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="40"/>
+      <c r="V42" s="26"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="17" t="s">
@@ -7485,7 +7513,7 @@
       <c r="P43" s="23">
         <v>65</v>
       </c>
-      <c r="V43" s="51"/>
+      <c r="V43" s="26"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="17" t="s">
@@ -7520,7 +7548,7 @@
         <f t="shared" si="7"/>
         <v>01000001</v>
       </c>
-      <c r="V44" s="51"/>
+      <c r="V44" s="26"/>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="17" t="s">
@@ -7539,13 +7567,13 @@
         <v>107</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="M45" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="48"/>
-      <c r="V45" s="51"/>
+      <c r="M45" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="40"/>
+      <c r="V45" s="26"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="17" t="s">
@@ -7576,7 +7604,7 @@
       <c r="P46" s="23">
         <v>66</v>
       </c>
-      <c r="V46" s="51"/>
+      <c r="V46" s="26"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="17" t="s">
@@ -7611,7 +7639,7 @@
         <f t="shared" si="8"/>
         <v>01000010</v>
       </c>
-      <c r="V47" s="51"/>
+      <c r="V47" s="26"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="17" t="s">
@@ -7630,13 +7658,13 @@
         <v>110</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="M48" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="48"/>
-      <c r="V48" s="51"/>
+      <c r="M48" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="40"/>
+      <c r="V48" s="26"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="17" t="s">
@@ -7667,7 +7695,7 @@
       <c r="P49" s="23">
         <v>126</v>
       </c>
-      <c r="V49" s="51"/>
+      <c r="V49" s="26"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="17" t="s">
@@ -7702,7 +7730,7 @@
         <f t="shared" si="9"/>
         <v>01111110</v>
       </c>
-      <c r="V50" s="51"/>
+      <c r="V50" s="26"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="17" t="s">
@@ -7721,16 +7749,16 @@
         <v>113</v>
       </c>
       <c r="G51" s="9"/>
-      <c r="M51" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="48"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="51"/>
+      <c r="M51" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="40"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="17" t="s">
@@ -7761,10 +7789,10 @@
       <c r="P52" s="23">
         <v>127</v>
       </c>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="17" t="s">
@@ -7799,10 +7827,10 @@
         <f t="shared" si="10"/>
         <v>01111111</v>
       </c>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="17" t="s">
@@ -7821,18 +7849,18 @@
         <v>116</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="M54" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
+      <c r="M54" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
       <c r="P54" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51"/>
-      <c r="V54" s="51"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="17" t="s">
@@ -7863,10 +7891,10 @@
       <c r="P55" s="23">
         <v>192</v>
       </c>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="17" t="s">
@@ -7901,10 +7929,10 @@
         <f t="shared" si="11"/>
         <v>11000000</v>
       </c>
-      <c r="S56" s="51"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51"/>
-      <c r="V56" s="51"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="17" t="s">
@@ -7923,10 +7951,10 @@
         <v>119</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="51"/>
-      <c r="V57" s="51"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="17" t="s">
@@ -7945,16 +7973,16 @@
         <v>120</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="M58" s="40" t="s">
+      <c r="M58" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="50"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="52"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="17" t="s">
@@ -7973,16 +8001,16 @@
         <v>121</v>
       </c>
       <c r="G59" s="9"/>
-      <c r="M59" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="48"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="51"/>
+      <c r="M59" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="40"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="17" t="s">
@@ -8013,10 +8041,10 @@
       <c r="P60" s="23">
         <v>128</v>
       </c>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="17" t="s">
@@ -8051,10 +8079,10 @@
         <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="17" t="s">
@@ -8073,16 +8101,16 @@
         <v>124</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="M62" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="48"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
+      <c r="M62" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="40"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="17" t="s">
@@ -8113,10 +8141,10 @@
       <c r="P63" s="23">
         <v>129</v>
       </c>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="26"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="17" t="s">
@@ -8173,12 +8201,12 @@
       <c r="G65" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M65" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="48"/>
+      <c r="M65" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="40"/>
     </row>
     <row r="66" spans="1:16">
       <c r="M66" s="21">
@@ -8213,12 +8241,12 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="15" customHeight="1">
-      <c r="M68" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="48"/>
+      <c r="M68" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="40"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1">
       <c r="M69" s="21">
@@ -8253,12 +8281,12 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="15" customHeight="1">
-      <c r="M71" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="N71" s="45"/>
-      <c r="O71" s="45"/>
-      <c r="P71" s="48"/>
+      <c r="M71" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="40"/>
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1">
       <c r="M72" s="21">
@@ -8293,11 +8321,11 @@
       </c>
     </row>
     <row r="74" spans="1:16" ht="15" customHeight="1">
-      <c r="M74" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
+      <c r="M74" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
       <c r="P74" s="23" t="s">
         <v>3</v>
       </c>
@@ -8336,16 +8364,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M31:P31"/>
     <mergeCell ref="M74:O74"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M42:P42"/>
@@ -8357,9 +8375,19 @@
     <mergeCell ref="M62:P62"/>
     <mergeCell ref="M65:P65"/>
     <mergeCell ref="M71:P71"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M48:P48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhfXWjcZHZaIW73+VRz+M3FOT/UEw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miJXMLNY6rUQ+YWnJC84EE+Ill/vw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -310,7 +310,7 @@
     <t>10.0.0.1</t>
   </si>
   <si>
-    <t>255.0.0.0</t>
+    <t>255.255.255.252</t>
   </si>
   <si>
     <t>185.62.128.222</t>
@@ -390,7 +390,7 @@
     <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$Ft-40E]"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -432,6 +432,11 @@
       <sz val="24.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="11">
@@ -656,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -716,6 +721,21 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="11" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -6124,6 +6144,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="15" max="15" width="15.43"/>
+    <col customWidth="1" min="19" max="19" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6240,7 +6261,7 @@
       <c r="R3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="37" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6287,7 +6308,7 @@
       <c r="R4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="38" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6392,7 +6413,7 @@
       <c r="R7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="39" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6437,7 +6458,7 @@
       <c r="R8" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="S8" s="39" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6569,7 +6590,7 @@
       <c r="R11" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6607,7 +6628,7 @@
       <c r="R12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6712,7 +6733,7 @@
       <c r="R15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6750,7 +6771,7 @@
       <c r="R16" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6811,7 +6832,7 @@
       <c r="K18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="42" t="s">
         <v>87</v>
       </c>
       <c r="N18" s="31"/>
@@ -6844,12 +6865,12 @@
         <v>209.0</v>
       </c>
       <c r="K19" s="27"/>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="40"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -6877,13 +6898,13 @@
         <v>210.0</v>
       </c>
       <c r="K20" s="27"/>
-      <c r="M20" s="41">
+      <c r="M20" s="46">
         <v>185.0</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="47">
         <v>62.0</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="47">
         <v>128.0</v>
       </c>
       <c r="P20" s="13">
@@ -6916,15 +6937,15 @@
         <v>211.0</v>
       </c>
       <c r="K21" s="27"/>
-      <c r="M21" s="43" t="str">
+      <c r="M21" s="48" t="str">
         <f t="shared" ref="M21:P21" si="1">DEC2BIN(M20,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N21" s="44" t="str">
+      <c r="N21" s="49" t="str">
         <f t="shared" si="1"/>
         <v>00111110</v>
       </c>
-      <c r="O21" s="44" t="str">
+      <c r="O21" s="49" t="str">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
@@ -6932,7 +6953,7 @@
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R21" s="50" t="s">
         <v>115</v>
       </c>
       <c r="S21" s="32"/>
@@ -6963,17 +6984,17 @@
         <v>212.0</v>
       </c>
       <c r="K22" s="27"/>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
-      <c r="R22" s="46">
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45"/>
+      <c r="R22" s="51">
         <f>(127+63+31+16)*51</f>
         <v>12087</v>
       </c>
-      <c r="S22" s="47">
+      <c r="S22" s="52">
         <f>R22*394</f>
         <v>4762278</v>
       </c>
@@ -7004,22 +7025,22 @@
         <v>213.0</v>
       </c>
       <c r="K23" s="27"/>
-      <c r="M23" s="41">
+      <c r="M23" s="46">
         <v>185.0</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="47">
         <v>62.0</v>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="47">
         <v>128.0</v>
       </c>
       <c r="P23" s="13">
         <v>1.0</v>
       </c>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
@@ -7047,15 +7068,15 @@
         <v>214.0</v>
       </c>
       <c r="K24" s="27"/>
-      <c r="M24" s="43" t="str">
+      <c r="M24" s="48" t="str">
         <f t="shared" ref="M24:P24" si="2">DEC2BIN(M23,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N24" s="44" t="str">
+      <c r="N24" s="49" t="str">
         <f t="shared" si="2"/>
         <v>00111110</v>
       </c>
-      <c r="O24" s="44" t="str">
+      <c r="O24" s="49" t="str">
         <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
@@ -7063,10 +7084,10 @@
         <f t="shared" si="2"/>
         <v>00000001</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
@@ -7094,16 +7115,16 @@
         <v>215.0</v>
       </c>
       <c r="K25" s="27"/>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="40"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="45"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
@@ -7131,22 +7152,22 @@
         <v>216.0</v>
       </c>
       <c r="K26" s="27"/>
-      <c r="M26" s="41">
+      <c r="M26" s="46">
         <v>185.0</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="47">
         <v>62.0</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="47">
         <v>128.0</v>
       </c>
       <c r="P26" s="13">
         <v>2.0</v>
       </c>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
@@ -7174,15 +7195,15 @@
         <v>217.0</v>
       </c>
       <c r="K27" s="27"/>
-      <c r="M27" s="43" t="str">
+      <c r="M27" s="48" t="str">
         <f t="shared" ref="M27:P27" si="3">DEC2BIN(M26,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N27" s="44" t="str">
+      <c r="N27" s="49" t="str">
         <f t="shared" si="3"/>
         <v>00111110</v>
       </c>
-      <c r="O27" s="44" t="str">
+      <c r="O27" s="49" t="str">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
@@ -7190,10 +7211,10 @@
         <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
@@ -7221,16 +7242,16 @@
         <v>218.0</v>
       </c>
       <c r="K28" s="27"/>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="45"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
@@ -7258,22 +7279,22 @@
         <v>219.0</v>
       </c>
       <c r="K29" s="27"/>
-      <c r="M29" s="41">
+      <c r="M29" s="46">
         <v>185.0</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="47">
         <v>62.0</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="47">
         <v>128.0</v>
       </c>
       <c r="P29" s="13">
         <v>126.0</v>
       </c>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
@@ -7301,15 +7322,15 @@
         <v>220.0</v>
       </c>
       <c r="K30" s="27"/>
-      <c r="M30" s="43" t="str">
+      <c r="M30" s="48" t="str">
         <f t="shared" ref="M30:P30" si="4">DEC2BIN(M29,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N30" s="44" t="str">
+      <c r="N30" s="49" t="str">
         <f t="shared" si="4"/>
         <v>00111110</v>
       </c>
-      <c r="O30" s="44" t="str">
+      <c r="O30" s="49" t="str">
         <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
@@ -7317,10 +7338,10 @@
         <f t="shared" si="4"/>
         <v>01111110</v>
       </c>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
@@ -7348,17 +7369,17 @@
         <v>221.0</v>
       </c>
       <c r="K31" s="27"/>
-      <c r="M31" s="38" t="s">
+      <c r="M31" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="45"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
@@ -7388,23 +7409,23 @@
       <c r="K32" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="46">
         <v>185.0</v>
       </c>
-      <c r="N32" s="42">
+      <c r="N32" s="47">
         <v>62.0</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="47">
         <v>128.0</v>
       </c>
       <c r="P32" s="13">
         <v>127.0</v>
       </c>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
@@ -7434,15 +7455,15 @@
       <c r="K33" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="43" t="str">
+      <c r="M33" s="48" t="str">
         <f t="shared" ref="M33:P33" si="5">DEC2BIN(M32,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N33" s="44" t="str">
+      <c r="N33" s="49" t="str">
         <f t="shared" si="5"/>
         <v>00111110</v>
       </c>
-      <c r="O33" s="44" t="str">
+      <c r="O33" s="49" t="str">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
@@ -7450,11 +7471,11 @@
         <f t="shared" si="5"/>
         <v>01111111</v>
       </c>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
@@ -7473,19 +7494,19 @@
         <v>160.0</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="M34" s="38" t="s">
+      <c r="M34" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
       <c r="P34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
@@ -7504,23 +7525,23 @@
         <v>161.0</v>
       </c>
       <c r="G35" s="25"/>
-      <c r="M35" s="41">
+      <c r="M35" s="46">
         <v>255.0</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="47">
         <v>255.0</v>
       </c>
-      <c r="O35" s="42">
+      <c r="O35" s="47">
         <v>255.0</v>
       </c>
       <c r="P35" s="13">
         <v>128.0</v>
       </c>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
@@ -7548,15 +7569,15 @@
       <c r="K36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="43" t="str">
+      <c r="M36" s="48" t="str">
         <f t="shared" ref="M36:P36" si="6">DEC2BIN(M35,8)</f>
         <v>11111111</v>
       </c>
-      <c r="N36" s="44" t="str">
+      <c r="N36" s="49" t="str">
         <f t="shared" si="6"/>
         <v>11111111</v>
       </c>
-      <c r="O36" s="44" t="str">
+      <c r="O36" s="49" t="str">
         <f t="shared" si="6"/>
         <v>11111111</v>
       </c>
@@ -7564,11 +7585,11 @@
         <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
@@ -7596,14 +7617,14 @@
       <c r="K37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
@@ -7631,16 +7652,16 @@
       <c r="K38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="48" t="s">
+      <c r="M38" s="53" t="s">
         <v>88</v>
       </c>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
       <c r="P38" s="32"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
@@ -7668,16 +7689,16 @@
       <c r="K39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="M39" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="45"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
@@ -7705,22 +7726,22 @@
       <c r="K40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="41">
+      <c r="M40" s="46">
         <v>185.0</v>
       </c>
-      <c r="N40" s="42">
+      <c r="N40" s="47">
         <v>62.0</v>
       </c>
-      <c r="O40" s="42">
+      <c r="O40" s="47">
         <v>128.0</v>
       </c>
       <c r="P40" s="13">
         <v>128.0</v>
       </c>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
@@ -7748,15 +7769,15 @@
       <c r="K41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="43" t="str">
+      <c r="M41" s="48" t="str">
         <f t="shared" ref="M41:P41" si="7">DEC2BIN(M40,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N41" s="44" t="str">
+      <c r="N41" s="49" t="str">
         <f t="shared" si="7"/>
         <v>00111110</v>
       </c>
-      <c r="O41" s="44" t="str">
+      <c r="O41" s="49" t="str">
         <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
@@ -7764,10 +7785,10 @@
         <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
@@ -7795,16 +7816,16 @@
       <c r="K42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="38" t="s">
+      <c r="M42" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="45"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
@@ -7832,22 +7853,22 @@
       <c r="K43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="41">
+      <c r="M43" s="46">
         <v>185.0</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N43" s="47">
         <v>62.0</v>
       </c>
-      <c r="O43" s="42">
+      <c r="O43" s="47">
         <v>128.0</v>
       </c>
       <c r="P43" s="13">
         <v>129.0</v>
       </c>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
@@ -7875,15 +7896,15 @@
       <c r="K44" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="43" t="str">
+      <c r="M44" s="48" t="str">
         <f t="shared" ref="M44:P44" si="8">DEC2BIN(M43,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N44" s="44" t="str">
+      <c r="N44" s="49" t="str">
         <f t="shared" si="8"/>
         <v>00111110</v>
       </c>
-      <c r="O44" s="44" t="str">
+      <c r="O44" s="49" t="str">
         <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
@@ -7891,10 +7912,10 @@
         <f t="shared" si="8"/>
         <v>10000001</v>
       </c>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
@@ -7922,16 +7943,16 @@
       <c r="K45" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="38" t="s">
+      <c r="M45" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="45"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
@@ -7959,22 +7980,22 @@
       <c r="K46" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="41">
+      <c r="M46" s="46">
         <v>185.0</v>
       </c>
-      <c r="N46" s="42">
+      <c r="N46" s="47">
         <v>62.0</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="47">
         <v>128.0</v>
       </c>
       <c r="P46" s="13">
         <v>130.0</v>
       </c>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
@@ -8002,15 +8023,15 @@
       <c r="K47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="43" t="str">
+      <c r="M47" s="48" t="str">
         <f t="shared" ref="M47:P47" si="9">DEC2BIN(M46,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N47" s="44" t="str">
+      <c r="N47" s="49" t="str">
         <f t="shared" si="9"/>
         <v>00111110</v>
       </c>
-      <c r="O47" s="44" t="str">
+      <c r="O47" s="49" t="str">
         <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
@@ -8018,10 +8039,10 @@
         <f t="shared" si="9"/>
         <v>10000010</v>
       </c>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
@@ -8049,16 +8070,16 @@
       <c r="K48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="38" t="s">
+      <c r="M48" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="40"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="45"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
@@ -8086,22 +8107,22 @@
       <c r="K49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="41">
+      <c r="M49" s="46">
         <v>185.0</v>
       </c>
-      <c r="N49" s="42">
+      <c r="N49" s="47">
         <v>62.0</v>
       </c>
-      <c r="O49" s="42">
+      <c r="O49" s="47">
         <v>128.0</v>
       </c>
       <c r="P49" s="13">
         <v>190.0</v>
       </c>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
@@ -8129,15 +8150,15 @@
       <c r="K50" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="43" t="str">
+      <c r="M50" s="48" t="str">
         <f t="shared" ref="M50:P50" si="10">DEC2BIN(M49,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N50" s="44" t="str">
+      <c r="N50" s="49" t="str">
         <f t="shared" si="10"/>
         <v>00111110</v>
       </c>
-      <c r="O50" s="44" t="str">
+      <c r="O50" s="49" t="str">
         <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
@@ -8145,10 +8166,10 @@
         <f t="shared" si="10"/>
         <v>10111110</v>
       </c>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
@@ -8176,16 +8197,16 @@
       <c r="K51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="38" t="s">
+      <c r="M51" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="40"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="45"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
@@ -8204,22 +8225,22 @@
         <v>178.0</v>
       </c>
       <c r="G52" s="25"/>
-      <c r="M52" s="41">
+      <c r="M52" s="46">
         <v>185.0</v>
       </c>
-      <c r="N52" s="42">
+      <c r="N52" s="47">
         <v>62.0</v>
       </c>
-      <c r="O52" s="42">
+      <c r="O52" s="47">
         <v>128.0</v>
       </c>
       <c r="P52" s="13">
         <v>191.0</v>
       </c>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
@@ -8238,15 +8259,15 @@
         <v>179.0</v>
       </c>
       <c r="G53" s="25"/>
-      <c r="M53" s="43" t="str">
+      <c r="M53" s="48" t="str">
         <f t="shared" ref="M53:P53" si="11">DEC2BIN(M52,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N53" s="44" t="str">
+      <c r="N53" s="49" t="str">
         <f t="shared" si="11"/>
         <v>00111110</v>
       </c>
-      <c r="O53" s="44" t="str">
+      <c r="O53" s="49" t="str">
         <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
@@ -8272,11 +8293,11 @@
         <v>180.0</v>
       </c>
       <c r="G54" s="25"/>
-      <c r="M54" s="38" t="s">
+      <c r="M54" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
       <c r="P54" s="13" t="s">
         <v>4</v>
       </c>
@@ -8298,13 +8319,13 @@
         <v>181.0</v>
       </c>
       <c r="G55" s="25"/>
-      <c r="M55" s="41">
+      <c r="M55" s="46">
         <v>255.0</v>
       </c>
-      <c r="N55" s="42">
+      <c r="N55" s="47">
         <v>255.0</v>
       </c>
-      <c r="O55" s="42">
+      <c r="O55" s="47">
         <v>255.0</v>
       </c>
       <c r="P55" s="13">
@@ -8328,15 +8349,15 @@
         <v>182.0</v>
       </c>
       <c r="G56" s="25"/>
-      <c r="M56" s="43" t="str">
+      <c r="M56" s="48" t="str">
         <f t="shared" ref="M56:P56" si="12">DEC2BIN(M55,8)</f>
         <v>11111111</v>
       </c>
-      <c r="N56" s="44" t="str">
+      <c r="N56" s="49" t="str">
         <f t="shared" si="12"/>
         <v>11111111</v>
       </c>
-      <c r="O56" s="44" t="str">
+      <c r="O56" s="49" t="str">
         <f t="shared" si="12"/>
         <v>11111111</v>
       </c>
@@ -8362,10 +8383,10 @@
         <v>183.0</v>
       </c>
       <c r="G57" s="25"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
@@ -8384,7 +8405,7 @@
         <v>184.0</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="M58" s="49" t="s">
+      <c r="M58" s="54" t="s">
         <v>89</v>
       </c>
       <c r="N58" s="31"/>
@@ -8408,12 +8429,12 @@
         <v>185.0</v>
       </c>
       <c r="G59" s="25"/>
-      <c r="M59" s="38" t="s">
+      <c r="M59" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="40"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="45"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
@@ -8432,13 +8453,13 @@
         <v>186.0</v>
       </c>
       <c r="G60" s="25"/>
-      <c r="M60" s="41">
+      <c r="M60" s="46">
         <v>185.0</v>
       </c>
-      <c r="N60" s="42">
+      <c r="N60" s="47">
         <v>62.0</v>
       </c>
-      <c r="O60" s="42">
+      <c r="O60" s="47">
         <v>128.0</v>
       </c>
       <c r="P60" s="13">
@@ -8462,15 +8483,15 @@
         <v>187.0</v>
       </c>
       <c r="G61" s="25"/>
-      <c r="M61" s="43" t="str">
+      <c r="M61" s="48" t="str">
         <f t="shared" ref="M61:P61" si="13">DEC2BIN(M60,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N61" s="44" t="str">
+      <c r="N61" s="49" t="str">
         <f t="shared" si="13"/>
         <v>00111110</v>
       </c>
-      <c r="O61" s="44" t="str">
+      <c r="O61" s="49" t="str">
         <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
@@ -8496,12 +8517,12 @@
         <v>188.0</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="M62" s="38" t="s">
+      <c r="M62" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="40"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="45"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
@@ -8520,13 +8541,13 @@
         <v>189.0</v>
       </c>
       <c r="G63" s="25"/>
-      <c r="M63" s="41">
+      <c r="M63" s="46">
         <v>185.0</v>
       </c>
-      <c r="N63" s="42">
+      <c r="N63" s="47">
         <v>62.0</v>
       </c>
-      <c r="O63" s="42">
+      <c r="O63" s="47">
         <v>128.0</v>
       </c>
       <c r="P63" s="13">
@@ -8552,15 +8573,15 @@
       <c r="G64" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M64" s="43" t="str">
+      <c r="M64" s="48" t="str">
         <f t="shared" ref="M64:P64" si="14">DEC2BIN(M63,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N64" s="44" t="str">
+      <c r="N64" s="49" t="str">
         <f t="shared" si="14"/>
         <v>00111110</v>
       </c>
-      <c r="O64" s="44" t="str">
+      <c r="O64" s="49" t="str">
         <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
@@ -8586,12 +8607,12 @@
       <c r="G65" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M65" s="38" t="s">
+      <c r="M65" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="40"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="45"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
@@ -8601,13 +8622,13 @@
         <v>64.0</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="M66" s="41">
+      <c r="M66" s="46">
         <v>185.0</v>
       </c>
-      <c r="N66" s="42">
+      <c r="N66" s="47">
         <v>62.0</v>
       </c>
-      <c r="O66" s="42">
+      <c r="O66" s="47">
         <v>128.0</v>
       </c>
       <c r="P66" s="13">
@@ -8622,15 +8643,15 @@
         <v>65.0</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="M67" s="43" t="str">
+      <c r="M67" s="48" t="str">
         <f t="shared" ref="M67:P67" si="15">DEC2BIN(M66,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N67" s="44" t="str">
+      <c r="N67" s="49" t="str">
         <f t="shared" si="15"/>
         <v>00111110</v>
       </c>
-      <c r="O67" s="44" t="str">
+      <c r="O67" s="49" t="str">
         <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
@@ -8647,12 +8668,12 @@
         <v>66.0</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="M68" s="38" t="s">
+      <c r="M68" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="40"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="45"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
@@ -8662,13 +8683,13 @@
         <v>67.0</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="M69" s="41">
+      <c r="M69" s="46">
         <v>185.0</v>
       </c>
-      <c r="N69" s="42">
+      <c r="N69" s="47">
         <v>62.0</v>
       </c>
-      <c r="O69" s="42">
+      <c r="O69" s="47">
         <v>128.0</v>
       </c>
       <c r="P69" s="13">
@@ -8683,15 +8704,15 @@
         <v>68.0</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="M70" s="43" t="str">
+      <c r="M70" s="48" t="str">
         <f t="shared" ref="M70:P70" si="16">DEC2BIN(M69,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N70" s="44" t="str">
+      <c r="N70" s="49" t="str">
         <f t="shared" si="16"/>
         <v>00111110</v>
       </c>
-      <c r="O70" s="44" t="str">
+      <c r="O70" s="49" t="str">
         <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
@@ -8708,12 +8729,12 @@
         <v>69.0</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="M71" s="38" t="s">
+      <c r="M71" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="40"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="45"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
@@ -8723,13 +8744,13 @@
         <v>70.0</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="M72" s="41">
+      <c r="M72" s="46">
         <v>185.0</v>
       </c>
-      <c r="N72" s="42">
+      <c r="N72" s="47">
         <v>62.0</v>
       </c>
-      <c r="O72" s="42">
+      <c r="O72" s="47">
         <v>128.0</v>
       </c>
       <c r="P72" s="13">
@@ -8744,15 +8765,15 @@
         <v>71.0</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="M73" s="43" t="str">
+      <c r="M73" s="48" t="str">
         <f t="shared" ref="M73:P73" si="17">DEC2BIN(M72,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N73" s="44" t="str">
+      <c r="N73" s="49" t="str">
         <f t="shared" si="17"/>
         <v>00111110</v>
       </c>
-      <c r="O73" s="44" t="str">
+      <c r="O73" s="49" t="str">
         <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
@@ -8769,11 +8790,11 @@
         <v>72.0</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="M74" s="38" t="s">
+      <c r="M74" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
       <c r="P74" s="13" t="s">
         <v>3</v>
       </c>
@@ -8786,13 +8807,13 @@
         <v>73.0</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="M75" s="41">
+      <c r="M75" s="46">
         <v>255.0</v>
       </c>
-      <c r="N75" s="42">
+      <c r="N75" s="47">
         <v>255.0</v>
       </c>
-      <c r="O75" s="42">
+      <c r="O75" s="47">
         <v>255.0</v>
       </c>
       <c r="P75" s="13">
@@ -8807,15 +8828,15 @@
         <v>74.0</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="M76" s="43" t="str">
+      <c r="M76" s="48" t="str">
         <f t="shared" ref="M76:P76" si="18">DEC2BIN(M75,8)</f>
         <v>11111111</v>
       </c>
-      <c r="N76" s="44" t="str">
+      <c r="N76" s="49" t="str">
         <f t="shared" si="18"/>
         <v>11111111</v>
       </c>
-      <c r="O76" s="44" t="str">
+      <c r="O76" s="49" t="str">
         <f t="shared" si="18"/>
         <v>11111111</v>
       </c>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -325,10 +325,10 @@
     <t>O hálózat</t>
   </si>
   <si>
-    <t>10.0.0.3</t>
-  </si>
-  <si>
-    <t>10.0.0.4</t>
+    <t>10.0.0.5</t>
+  </si>
+  <si>
+    <t>10.0.0.6</t>
   </si>
   <si>
     <t>185.62.128.127</t>
@@ -343,22 +343,22 @@
     <t>185.62.128.223</t>
   </si>
   <si>
-    <t>10.0.0.5</t>
-  </si>
-  <si>
-    <t>10.0.0.6</t>
+    <t>10.0.0.9</t>
+  </si>
+  <si>
+    <t>10.0.0.10</t>
   </si>
   <si>
     <t>K hálózat</t>
   </si>
   <si>
-    <t>10.0.0.7</t>
+    <t>10.0.0.13</t>
   </si>
   <si>
     <t>R_BP</t>
   </si>
   <si>
-    <t>10.0.0.8</t>
+    <t>10.0.0.14</t>
   </si>
   <si>
     <t>Alhálózati cím</t>
@@ -661,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -727,11 +727,20 @@
     <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -6410,10 +6419,10 @@
       <c r="Q7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6455,10 +6464,10 @@
       <c r="Q8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6587,10 +6596,10 @@
       <c r="Q11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="S11" s="42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6625,10 +6634,10 @@
       <c r="Q12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="S12" s="40" t="s">
+      <c r="S12" s="42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6730,10 +6739,10 @@
       <c r="Q15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="S15" s="41" t="s">
+      <c r="S15" s="44" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6768,10 +6777,10 @@
       <c r="Q16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="R16" s="21" t="s">
+      <c r="R16" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="S16" s="41" t="s">
+      <c r="S16" s="44" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6832,7 +6841,7 @@
       <c r="K18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="45" t="s">
         <v>87</v>
       </c>
       <c r="N18" s="31"/>
@@ -6865,12 +6874,12 @@
         <v>209.0</v>
       </c>
       <c r="K19" s="27"/>
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="45"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -6898,13 +6907,13 @@
         <v>210.0</v>
       </c>
       <c r="K20" s="27"/>
-      <c r="M20" s="46">
+      <c r="M20" s="49">
         <v>185.0</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="50">
         <v>62.0</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="50">
         <v>128.0</v>
       </c>
       <c r="P20" s="13">
@@ -6937,15 +6946,15 @@
         <v>211.0</v>
       </c>
       <c r="K21" s="27"/>
-      <c r="M21" s="48" t="str">
+      <c r="M21" s="51" t="str">
         <f t="shared" ref="M21:P21" si="1">DEC2BIN(M20,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N21" s="49" t="str">
+      <c r="N21" s="52" t="str">
         <f t="shared" si="1"/>
         <v>00111110</v>
       </c>
-      <c r="O21" s="49" t="str">
+      <c r="O21" s="52" t="str">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
@@ -6953,7 +6962,7 @@
         <f t="shared" si="1"/>
         <v>00000000</v>
       </c>
-      <c r="R21" s="50" t="s">
+      <c r="R21" s="53" t="s">
         <v>115</v>
       </c>
       <c r="S21" s="32"/>
@@ -6984,17 +6993,17 @@
         <v>212.0</v>
       </c>
       <c r="K22" s="27"/>
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-      <c r="R22" s="51">
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="R22" s="54">
         <f>(127+63+31+16)*51</f>
         <v>12087</v>
       </c>
-      <c r="S22" s="52">
+      <c r="S22" s="55">
         <f>R22*394</f>
         <v>4762278</v>
       </c>
@@ -7025,22 +7034,22 @@
         <v>213.0</v>
       </c>
       <c r="K23" s="27"/>
-      <c r="M23" s="46">
+      <c r="M23" s="49">
         <v>185.0</v>
       </c>
-      <c r="N23" s="47">
+      <c r="N23" s="50">
         <v>62.0</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="50">
         <v>128.0</v>
       </c>
       <c r="P23" s="13">
         <v>1.0</v>
       </c>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
@@ -7068,15 +7077,15 @@
         <v>214.0</v>
       </c>
       <c r="K24" s="27"/>
-      <c r="M24" s="48" t="str">
+      <c r="M24" s="51" t="str">
         <f t="shared" ref="M24:P24" si="2">DEC2BIN(M23,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N24" s="49" t="str">
+      <c r="N24" s="52" t="str">
         <f t="shared" si="2"/>
         <v>00111110</v>
       </c>
-      <c r="O24" s="49" t="str">
+      <c r="O24" s="52" t="str">
         <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
@@ -7084,10 +7093,10 @@
         <f t="shared" si="2"/>
         <v>00000001</v>
       </c>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
@@ -7115,16 +7124,16 @@
         <v>215.0</v>
       </c>
       <c r="K25" s="27"/>
-      <c r="M25" s="43" t="s">
+      <c r="M25" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="45"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
@@ -7152,22 +7161,22 @@
         <v>216.0</v>
       </c>
       <c r="K26" s="27"/>
-      <c r="M26" s="46">
+      <c r="M26" s="49">
         <v>185.0</v>
       </c>
-      <c r="N26" s="47">
+      <c r="N26" s="50">
         <v>62.0</v>
       </c>
-      <c r="O26" s="47">
+      <c r="O26" s="50">
         <v>128.0</v>
       </c>
       <c r="P26" s="13">
         <v>2.0</v>
       </c>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
@@ -7195,15 +7204,15 @@
         <v>217.0</v>
       </c>
       <c r="K27" s="27"/>
-      <c r="M27" s="48" t="str">
+      <c r="M27" s="51" t="str">
         <f t="shared" ref="M27:P27" si="3">DEC2BIN(M26,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N27" s="49" t="str">
+      <c r="N27" s="52" t="str">
         <f t="shared" si="3"/>
         <v>00111110</v>
       </c>
-      <c r="O27" s="49" t="str">
+      <c r="O27" s="52" t="str">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
@@ -7211,10 +7220,10 @@
         <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
@@ -7242,16 +7251,16 @@
         <v>218.0</v>
       </c>
       <c r="K28" s="27"/>
-      <c r="M28" s="43" t="s">
+      <c r="M28" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="45"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
@@ -7279,22 +7288,22 @@
         <v>219.0</v>
       </c>
       <c r="K29" s="27"/>
-      <c r="M29" s="46">
+      <c r="M29" s="49">
         <v>185.0</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="50">
         <v>62.0</v>
       </c>
-      <c r="O29" s="47">
+      <c r="O29" s="50">
         <v>128.0</v>
       </c>
       <c r="P29" s="13">
         <v>126.0</v>
       </c>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
@@ -7322,15 +7331,15 @@
         <v>220.0</v>
       </c>
       <c r="K30" s="27"/>
-      <c r="M30" s="48" t="str">
+      <c r="M30" s="51" t="str">
         <f t="shared" ref="M30:P30" si="4">DEC2BIN(M29,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N30" s="49" t="str">
+      <c r="N30" s="52" t="str">
         <f t="shared" si="4"/>
         <v>00111110</v>
       </c>
-      <c r="O30" s="49" t="str">
+      <c r="O30" s="52" t="str">
         <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
@@ -7338,10 +7347,10 @@
         <f t="shared" si="4"/>
         <v>01111110</v>
       </c>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
@@ -7369,17 +7378,17 @@
         <v>221.0</v>
       </c>
       <c r="K31" s="27"/>
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="45"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
@@ -7409,23 +7418,23 @@
       <c r="K32" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="49">
         <v>185.0</v>
       </c>
-      <c r="N32" s="47">
+      <c r="N32" s="50">
         <v>62.0</v>
       </c>
-      <c r="O32" s="47">
+      <c r="O32" s="50">
         <v>128.0</v>
       </c>
       <c r="P32" s="13">
         <v>127.0</v>
       </c>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
@@ -7455,15 +7464,15 @@
       <c r="K33" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="48" t="str">
+      <c r="M33" s="51" t="str">
         <f t="shared" ref="M33:P33" si="5">DEC2BIN(M32,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N33" s="49" t="str">
+      <c r="N33" s="52" t="str">
         <f t="shared" si="5"/>
         <v>00111110</v>
       </c>
-      <c r="O33" s="49" t="str">
+      <c r="O33" s="52" t="str">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
@@ -7471,11 +7480,11 @@
         <f t="shared" si="5"/>
         <v>01111111</v>
       </c>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
@@ -7494,19 +7503,19 @@
         <v>160.0</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="M34" s="43" t="s">
+      <c r="M34" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
       <c r="P34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
@@ -7525,23 +7534,23 @@
         <v>161.0</v>
       </c>
       <c r="G35" s="25"/>
-      <c r="M35" s="46">
+      <c r="M35" s="49">
         <v>255.0</v>
       </c>
-      <c r="N35" s="47">
+      <c r="N35" s="50">
         <v>255.0</v>
       </c>
-      <c r="O35" s="47">
+      <c r="O35" s="50">
         <v>255.0</v>
       </c>
       <c r="P35" s="13">
         <v>128.0</v>
       </c>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
@@ -7569,15 +7578,15 @@
       <c r="K36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="48" t="str">
+      <c r="M36" s="51" t="str">
         <f t="shared" ref="M36:P36" si="6">DEC2BIN(M35,8)</f>
         <v>11111111</v>
       </c>
-      <c r="N36" s="49" t="str">
+      <c r="N36" s="52" t="str">
         <f t="shared" si="6"/>
         <v>11111111</v>
       </c>
-      <c r="O36" s="49" t="str">
+      <c r="O36" s="52" t="str">
         <f t="shared" si="6"/>
         <v>11111111</v>
       </c>
@@ -7585,11 +7594,11 @@
         <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
@@ -7617,14 +7626,14 @@
       <c r="K37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
@@ -7652,16 +7661,16 @@
       <c r="K38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M38" s="56" t="s">
         <v>88</v>
       </c>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
       <c r="P38" s="32"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
@@ -7689,16 +7698,16 @@
       <c r="K39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="45"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="48"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
@@ -7726,22 +7735,22 @@
       <c r="K40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="49">
         <v>185.0</v>
       </c>
-      <c r="N40" s="47">
+      <c r="N40" s="50">
         <v>62.0</v>
       </c>
-      <c r="O40" s="47">
+      <c r="O40" s="50">
         <v>128.0</v>
       </c>
       <c r="P40" s="13">
         <v>128.0</v>
       </c>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
@@ -7769,15 +7778,15 @@
       <c r="K41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="48" t="str">
+      <c r="M41" s="51" t="str">
         <f t="shared" ref="M41:P41" si="7">DEC2BIN(M40,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N41" s="49" t="str">
+      <c r="N41" s="52" t="str">
         <f t="shared" si="7"/>
         <v>00111110</v>
       </c>
-      <c r="O41" s="49" t="str">
+      <c r="O41" s="52" t="str">
         <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
@@ -7785,10 +7794,10 @@
         <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
@@ -7816,16 +7825,16 @@
       <c r="K42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="43" t="s">
+      <c r="M42" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="45"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="48"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
@@ -7853,22 +7862,22 @@
       <c r="K43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="49">
         <v>185.0</v>
       </c>
-      <c r="N43" s="47">
+      <c r="N43" s="50">
         <v>62.0</v>
       </c>
-      <c r="O43" s="47">
+      <c r="O43" s="50">
         <v>128.0</v>
       </c>
       <c r="P43" s="13">
         <v>129.0</v>
       </c>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
@@ -7896,15 +7905,15 @@
       <c r="K44" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="48" t="str">
+      <c r="M44" s="51" t="str">
         <f t="shared" ref="M44:P44" si="8">DEC2BIN(M43,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N44" s="49" t="str">
+      <c r="N44" s="52" t="str">
         <f t="shared" si="8"/>
         <v>00111110</v>
       </c>
-      <c r="O44" s="49" t="str">
+      <c r="O44" s="52" t="str">
         <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
@@ -7912,10 +7921,10 @@
         <f t="shared" si="8"/>
         <v>10000001</v>
       </c>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
@@ -7943,16 +7952,16 @@
       <c r="K45" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="43" t="s">
+      <c r="M45" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="45"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="48"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
@@ -7980,22 +7989,22 @@
       <c r="K46" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="49">
         <v>185.0</v>
       </c>
-      <c r="N46" s="47">
+      <c r="N46" s="50">
         <v>62.0</v>
       </c>
-      <c r="O46" s="47">
+      <c r="O46" s="50">
         <v>128.0</v>
       </c>
       <c r="P46" s="13">
         <v>130.0</v>
       </c>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
@@ -8023,15 +8032,15 @@
       <c r="K47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="48" t="str">
+      <c r="M47" s="51" t="str">
         <f t="shared" ref="M47:P47" si="9">DEC2BIN(M46,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N47" s="49" t="str">
+      <c r="N47" s="52" t="str">
         <f t="shared" si="9"/>
         <v>00111110</v>
       </c>
-      <c r="O47" s="49" t="str">
+      <c r="O47" s="52" t="str">
         <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
@@ -8039,10 +8048,10 @@
         <f t="shared" si="9"/>
         <v>10000010</v>
       </c>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
@@ -8070,16 +8079,16 @@
       <c r="K48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="43" t="s">
+      <c r="M48" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="45"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="48"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
@@ -8107,22 +8116,22 @@
       <c r="K49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="49">
         <v>185.0</v>
       </c>
-      <c r="N49" s="47">
+      <c r="N49" s="50">
         <v>62.0</v>
       </c>
-      <c r="O49" s="47">
+      <c r="O49" s="50">
         <v>128.0</v>
       </c>
       <c r="P49" s="13">
         <v>190.0</v>
       </c>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
@@ -8150,15 +8159,15 @@
       <c r="K50" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="48" t="str">
+      <c r="M50" s="51" t="str">
         <f t="shared" ref="M50:P50" si="10">DEC2BIN(M49,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N50" s="49" t="str">
+      <c r="N50" s="52" t="str">
         <f t="shared" si="10"/>
         <v>00111110</v>
       </c>
-      <c r="O50" s="49" t="str">
+      <c r="O50" s="52" t="str">
         <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
@@ -8166,10 +8175,10 @@
         <f t="shared" si="10"/>
         <v>10111110</v>
       </c>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
@@ -8197,16 +8206,16 @@
       <c r="K51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="43" t="s">
+      <c r="M51" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="45"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="48"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
@@ -8225,22 +8234,22 @@
         <v>178.0</v>
       </c>
       <c r="G52" s="25"/>
-      <c r="M52" s="46">
+      <c r="M52" s="49">
         <v>185.0</v>
       </c>
-      <c r="N52" s="47">
+      <c r="N52" s="50">
         <v>62.0</v>
       </c>
-      <c r="O52" s="47">
+      <c r="O52" s="50">
         <v>128.0</v>
       </c>
       <c r="P52" s="13">
         <v>191.0</v>
       </c>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
@@ -8259,15 +8268,15 @@
         <v>179.0</v>
       </c>
       <c r="G53" s="25"/>
-      <c r="M53" s="48" t="str">
+      <c r="M53" s="51" t="str">
         <f t="shared" ref="M53:P53" si="11">DEC2BIN(M52,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N53" s="49" t="str">
+      <c r="N53" s="52" t="str">
         <f t="shared" si="11"/>
         <v>00111110</v>
       </c>
-      <c r="O53" s="49" t="str">
+      <c r="O53" s="52" t="str">
         <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
@@ -8293,11 +8302,11 @@
         <v>180.0</v>
       </c>
       <c r="G54" s="25"/>
-      <c r="M54" s="43" t="s">
+      <c r="M54" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
       <c r="P54" s="13" t="s">
         <v>4</v>
       </c>
@@ -8319,13 +8328,13 @@
         <v>181.0</v>
       </c>
       <c r="G55" s="25"/>
-      <c r="M55" s="46">
+      <c r="M55" s="49">
         <v>255.0</v>
       </c>
-      <c r="N55" s="47">
+      <c r="N55" s="50">
         <v>255.0</v>
       </c>
-      <c r="O55" s="47">
+      <c r="O55" s="50">
         <v>255.0</v>
       </c>
       <c r="P55" s="13">
@@ -8349,15 +8358,15 @@
         <v>182.0</v>
       </c>
       <c r="G56" s="25"/>
-      <c r="M56" s="48" t="str">
+      <c r="M56" s="51" t="str">
         <f t="shared" ref="M56:P56" si="12">DEC2BIN(M55,8)</f>
         <v>11111111</v>
       </c>
-      <c r="N56" s="49" t="str">
+      <c r="N56" s="52" t="str">
         <f t="shared" si="12"/>
         <v>11111111</v>
       </c>
-      <c r="O56" s="49" t="str">
+      <c r="O56" s="52" t="str">
         <f t="shared" si="12"/>
         <v>11111111</v>
       </c>
@@ -8383,10 +8392,10 @@
         <v>183.0</v>
       </c>
       <c r="G57" s="25"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
@@ -8405,7 +8414,7 @@
         <v>184.0</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="M58" s="54" t="s">
+      <c r="M58" s="57" t="s">
         <v>89</v>
       </c>
       <c r="N58" s="31"/>
@@ -8429,12 +8438,12 @@
         <v>185.0</v>
       </c>
       <c r="G59" s="25"/>
-      <c r="M59" s="43" t="s">
+      <c r="M59" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="45"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="48"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
@@ -8453,13 +8462,13 @@
         <v>186.0</v>
       </c>
       <c r="G60" s="25"/>
-      <c r="M60" s="46">
+      <c r="M60" s="49">
         <v>185.0</v>
       </c>
-      <c r="N60" s="47">
+      <c r="N60" s="50">
         <v>62.0</v>
       </c>
-      <c r="O60" s="47">
+      <c r="O60" s="50">
         <v>128.0</v>
       </c>
       <c r="P60" s="13">
@@ -8483,15 +8492,15 @@
         <v>187.0</v>
       </c>
       <c r="G61" s="25"/>
-      <c r="M61" s="48" t="str">
+      <c r="M61" s="51" t="str">
         <f t="shared" ref="M61:P61" si="13">DEC2BIN(M60,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N61" s="49" t="str">
+      <c r="N61" s="52" t="str">
         <f t="shared" si="13"/>
         <v>00111110</v>
       </c>
-      <c r="O61" s="49" t="str">
+      <c r="O61" s="52" t="str">
         <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
@@ -8517,12 +8526,12 @@
         <v>188.0</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="M62" s="43" t="s">
+      <c r="M62" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="45"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="48"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
@@ -8541,13 +8550,13 @@
         <v>189.0</v>
       </c>
       <c r="G63" s="25"/>
-      <c r="M63" s="46">
+      <c r="M63" s="49">
         <v>185.0</v>
       </c>
-      <c r="N63" s="47">
+      <c r="N63" s="50">
         <v>62.0</v>
       </c>
-      <c r="O63" s="47">
+      <c r="O63" s="50">
         <v>128.0</v>
       </c>
       <c r="P63" s="13">
@@ -8573,15 +8582,15 @@
       <c r="G64" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M64" s="48" t="str">
+      <c r="M64" s="51" t="str">
         <f t="shared" ref="M64:P64" si="14">DEC2BIN(M63,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N64" s="49" t="str">
+      <c r="N64" s="52" t="str">
         <f t="shared" si="14"/>
         <v>00111110</v>
       </c>
-      <c r="O64" s="49" t="str">
+      <c r="O64" s="52" t="str">
         <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
@@ -8607,12 +8616,12 @@
       <c r="G65" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M65" s="43" t="s">
+      <c r="M65" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="45"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="48"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
@@ -8622,13 +8631,13 @@
         <v>64.0</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="M66" s="46">
+      <c r="M66" s="49">
         <v>185.0</v>
       </c>
-      <c r="N66" s="47">
+      <c r="N66" s="50">
         <v>62.0</v>
       </c>
-      <c r="O66" s="47">
+      <c r="O66" s="50">
         <v>128.0</v>
       </c>
       <c r="P66" s="13">
@@ -8643,15 +8652,15 @@
         <v>65.0</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="M67" s="48" t="str">
+      <c r="M67" s="51" t="str">
         <f t="shared" ref="M67:P67" si="15">DEC2BIN(M66,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N67" s="49" t="str">
+      <c r="N67" s="52" t="str">
         <f t="shared" si="15"/>
         <v>00111110</v>
       </c>
-      <c r="O67" s="49" t="str">
+      <c r="O67" s="52" t="str">
         <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
@@ -8668,12 +8677,12 @@
         <v>66.0</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="M68" s="43" t="s">
+      <c r="M68" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="45"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="48"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
@@ -8683,13 +8692,13 @@
         <v>67.0</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="M69" s="46">
+      <c r="M69" s="49">
         <v>185.0</v>
       </c>
-      <c r="N69" s="47">
+      <c r="N69" s="50">
         <v>62.0</v>
       </c>
-      <c r="O69" s="47">
+      <c r="O69" s="50">
         <v>128.0</v>
       </c>
       <c r="P69" s="13">
@@ -8704,15 +8713,15 @@
         <v>68.0</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="M70" s="48" t="str">
+      <c r="M70" s="51" t="str">
         <f t="shared" ref="M70:P70" si="16">DEC2BIN(M69,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N70" s="49" t="str">
+      <c r="N70" s="52" t="str">
         <f t="shared" si="16"/>
         <v>00111110</v>
       </c>
-      <c r="O70" s="49" t="str">
+      <c r="O70" s="52" t="str">
         <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
@@ -8729,12 +8738,12 @@
         <v>69.0</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="M71" s="43" t="s">
+      <c r="M71" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="45"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="48"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
@@ -8744,13 +8753,13 @@
         <v>70.0</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="M72" s="46">
+      <c r="M72" s="49">
         <v>185.0</v>
       </c>
-      <c r="N72" s="47">
+      <c r="N72" s="50">
         <v>62.0</v>
       </c>
-      <c r="O72" s="47">
+      <c r="O72" s="50">
         <v>128.0</v>
       </c>
       <c r="P72" s="13">
@@ -8765,15 +8774,15 @@
         <v>71.0</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="M73" s="48" t="str">
+      <c r="M73" s="51" t="str">
         <f t="shared" ref="M73:P73" si="17">DEC2BIN(M72,8)</f>
         <v>10111001</v>
       </c>
-      <c r="N73" s="49" t="str">
+      <c r="N73" s="52" t="str">
         <f t="shared" si="17"/>
         <v>00111110</v>
       </c>
-      <c r="O73" s="49" t="str">
+      <c r="O73" s="52" t="str">
         <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
@@ -8790,11 +8799,11 @@
         <v>72.0</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="M74" s="43" t="s">
+      <c r="M74" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
       <c r="P74" s="13" t="s">
         <v>3</v>
       </c>
@@ -8807,13 +8816,13 @@
         <v>73.0</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="M75" s="46">
+      <c r="M75" s="49">
         <v>255.0</v>
       </c>
-      <c r="N75" s="47">
+      <c r="N75" s="50">
         <v>255.0</v>
       </c>
-      <c r="O75" s="47">
+      <c r="O75" s="50">
         <v>255.0</v>
       </c>
       <c r="P75" s="13">
@@ -8828,15 +8837,15 @@
         <v>74.0</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="M76" s="48" t="str">
+      <c r="M76" s="51" t="str">
         <f t="shared" ref="M76:P76" si="18">DEC2BIN(M75,8)</f>
         <v>11111111</v>
       </c>
-      <c r="N76" s="49" t="str">
+      <c r="N76" s="52" t="str">
         <f t="shared" si="18"/>
         <v>11111111</v>
       </c>
-      <c r="O76" s="49" t="str">
+      <c r="O76" s="52" t="str">
         <f t="shared" si="18"/>
         <v>11111111</v>
       </c>
